--- a/250410_또래지명_검사_회의_후_논의_및_확인사항.xlsx
+++ b/250410_또래지명_검사_회의_후_논의_및_확인사항.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\peer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4705F9E-A79D-4741-AAD5-3371578C3996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1B0132-42BA-49A6-9359-13EF07A5F6F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B05B94D7-EB60-466C-9832-7E3F9B4E9A61}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{B05B94D7-EB60-466C-9832-7E3F9B4E9A61}"/>
   </bookViews>
   <sheets>
     <sheet name="학생문항" sheetId="1" r:id="rId1"/>
@@ -47,6 +47,232 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>USER</author>
+  </authors>
+  <commentList>
+    <comment ref="F35" authorId="0" shapeId="0" xr:uid="{69C38515-FDD8-45BD-9619-02BB8EF7C44B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>부유민</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>해당</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>문항이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>어느</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>척도</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>및</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>결과로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>제공되는지에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대한</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>정보가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>없습니다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>USER</author>
@@ -1898,7 +2124,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Microsoft Office User</author>
@@ -2355,7 +2581,141 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>.</t>
+          <t xml:space="preserve">.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>단순</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선형변화하면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>어떨까요</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>? 1+4*X (X</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>산출된</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 0-1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>범위의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>점수</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
         </r>
       </text>
     </comment>
@@ -2808,161 +3168,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="J196" authorId="0" shapeId="0" xr:uid="{036FE726-8AA1-954B-B0F2-F4718082FBC1}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>부유민</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>유클리드</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>거리로</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>일치율</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>산출하는</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>것으로</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>확인했습니다</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>.</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4649" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4644" uniqueCount="678">
   <si>
     <t>scale</t>
   </si>
@@ -4923,63 +5134,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>* 일치율을 산출할 수 있는 방법</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방법</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피어슨 상관계수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스피어만 상관계수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유클리드 거리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단순 일치율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특징</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>증가 및 감소 패턴의 유사도를 확인할 수 있으나, 평균 기반으로 계산되기 때문에 극단치가 있는 경우 왜곡될 수 있음.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>페어된 값들 간의 절대적인 차이 기반으로 산출되며 범위 또는 단위가 다른경우 왜곡될 수 있음.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>값이 같은지를 직접 비교해 산출하는 방법이지만 값이 다를때 얼마나 차이나는지 고려되지 않음.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>증가 및 감소 패턴의 유사도를 확인할 수 있고 페어된 데이터의 순위의 차이를 기반으로 산출되기 때문에 피어슨보단 극단치 영향을 덜 받아 왜곡될 가능성이 적음.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 상관계수를 활용할시에 반대 패턴 역시 고려해야하므로 논의가 필요함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>* 모두 일치하면서 하나의 극단치가 존재하는 경우, 
-  피어슨 산출시 값이 매우 낮게 나타나지만 스피어만의 경우 양호하게 나타남</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>로그인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5035,44 +5193,6 @@
   </si>
   <si>
     <t>* 또래지명 문항 (테이블)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 일부 일치하면서 하나의 극단치가 존재하는 경우,
-   두 상관계수 좋지 않게 나타남</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 유클리드 거리 기반 일치율 : 62.73%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 단순 일치율 : 44.44%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 전부 일치하지 않지만 평행한 패턴인 경우,
-  두 상관계수 매우 좋게 나타남</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 유클리드 거리 기반 일치율 : 50.00%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 단순 일치율 : 0%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 유클리드 거리 기반 일치율 : 66.67%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 단순 일치율 : 88.88%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PN1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5204,9 +5324,6 @@
     <t>1-5분포</t>
   </si>
   <si>
-    <t xml:space="preserve">개별 학생의 PN4-7 비율점수* PN14 비율점수의 학급평균 </t>
-  </si>
-  <si>
     <t xml:space="preserve">개별 학생의 PN8-9 비율점수* PN14 비율점수의 학급평균 </t>
   </si>
   <si>
@@ -5353,14 +5470,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PN20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PN21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>좋아하는 친구</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5390,13 +5499,97 @@
   <si>
     <t>* 교사의 생활지도 역량 로직</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 일치율을 산출 검토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>또래지명-교사평가 범위가 상이해 유클리드 거리 기반 일치율 산출에 문제가 있는지 탐색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 또래지명 척도 범위 (0, 최대학생수-1) 범위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 리커트 척도 범위 (1,5) 범위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비율점수로 변환만 해서 시각화하면 다음과 같습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-1 범위이기 때문에 시각 및 직관적으로 해석에 어려움이 있으며,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일치율을 유클리드 거리로 산출한다고 했을때 다음과 같은 문제가 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> * 유클리드 거리는 한쌍의 절대적인 값 크기를 가지고 산출되기 때문에 범위 차이가 큰 경우 왜곡 될 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   ratio = [0.1, 0.2, 0.2, 0.3, 0.1, 0.4, 0.5]
+   likert = [1,2,2,3,1,4,5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지명척도를 Z점수 기반 수준화로 범위를 통일하는 경우 상대적인 위치를 점수화 하는 것이기 때문에</t>
+  </si>
+  <si>
+    <t>예를 들어 교사가 대부분 3점, 4점만 줬다면 분표는 편향되어</t>
+  </si>
+  <si>
+    <t>1-5가 고르게 나올 가능성이 매우 높지만, 리커트의 경우 편향되어 나올 가능성이 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고르게 나온 지명척도 점수와 일치율을 구했을 때 일치율이 왜곡될 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 또래지명을 비율점수로 변환한 경우 (0~1) 범위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 두 척도 모두 Z점수 기반 수준화로 범위 통일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이에 따라 두 척도를 비교할 때는, 해석적·수학적 기준의 일관성을 확보하기 위해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 점수를 상대적 평가 기준(표준화)으로 변환한 후 비교하는 것이 타당할 것 같습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1. 또래지명 척도만 Z점수 기반 수준화로 범위 통일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">개별 학생의 PN4-7 비율점수* PN14 비율점수의 학급평균 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지각된 인기의 표준편차</t>
+  </si>
+  <si>
+    <t>PN1 비율 점수의 표준편차</t>
+  </si>
+  <si>
+    <t>0-.5분포</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="41">
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5706,6 +5899,24 @@
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="20">
@@ -6619,7 +6830,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6839,20 +7050,11 @@
     <xf numFmtId="0" fontId="19" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -6881,16 +7083,10 @@
     <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="15" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="17" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="18" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1">
@@ -6899,28 +7095,10 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="19" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="21" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6950,18 +7128,6 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6970,33 +7136,6 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -7018,7 +7157,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7030,20 +7169,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7100,12 +7227,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7203,6 +7324,111 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -19250,138 +19476,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>198</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>2943225</xdr:colOff>
-      <xdr:row>212</xdr:row>
-      <xdr:rowOff>97574</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="그림 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09E1BE37-BA16-43C0-8B35-A88623EB6D7F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6362700" y="41576625"/>
-          <a:ext cx="5305425" cy="3088424"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>214</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>2952750</xdr:colOff>
-      <xdr:row>228</xdr:row>
-      <xdr:rowOff>57968</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="그림 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C60637A-94D1-FB4C-215E-396B1CAF43EB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6429375" y="45024675"/>
-          <a:ext cx="5248275" cy="3048816"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>230</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>2952749</xdr:colOff>
-      <xdr:row>244</xdr:row>
-      <xdr:rowOff>51607</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="그림 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18633D16-8A34-74B7-0FBF-FC36F4F90398}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6448424" y="48472725"/>
-          <a:ext cx="5229225" cy="3042458"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>752592</xdr:colOff>
       <xdr:row>122</xdr:row>
@@ -19407,7 +19501,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -19416,6 +19510,138 @@
         <a:xfrm>
           <a:off x="12653239" y="26009407"/>
           <a:ext cx="3948157" cy="2719572"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114209</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2835089</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>81286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="그림 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA408378-9678-ECFE-29C9-011ED5EF7E64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6479150" y="42145324"/>
+          <a:ext cx="5253410" cy="2949992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>99950</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>156884</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2823882</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>100854</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="그림 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1AB3909-1A09-9E5C-B5EE-C9FEF8280FFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6464891" y="46235472"/>
+          <a:ext cx="5256462" cy="2924734"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>65636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2884714</xdr:colOff>
+      <xdr:row>244</xdr:row>
+      <xdr:rowOff>62448</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="그림 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7310332C-47E0-4F62-A3F2-1D6A0FDCBE2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6531428" y="47391279"/>
+          <a:ext cx="5320393" cy="2854312"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19829,10 +20055,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -20155,8 +20377,8 @@
   </sheetPr>
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -20185,13 +20407,13 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="127" t="s">
-        <v>638</v>
+      <c r="F1" s="2" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>605</v>
+        <v>293</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -20205,8 +20427,8 @@
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="136" t="s">
-        <v>639</v>
+      <c r="F2" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -20225,28 +20447,28 @@
       <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="136" t="s">
-        <v>639</v>
+      <c r="F3" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="130" t="s">
+      <c r="A4" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="130" t="s">
+      <c r="B4" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="130" t="s">
+      <c r="C4" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="130" t="s">
+      <c r="D4" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="130" t="s">
+      <c r="E4" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="138" t="s">
-        <v>640</v>
+      <c r="F4" s="114" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -20265,8 +20487,8 @@
       <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="136" t="s">
-        <v>639</v>
+      <c r="F5" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -20285,8 +20507,8 @@
       <c r="E6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="136" t="s">
-        <v>639</v>
+      <c r="F6" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -20305,8 +20527,8 @@
       <c r="E7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="136" t="s">
-        <v>639</v>
+      <c r="F7" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -20325,8 +20547,8 @@
       <c r="E8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="136" t="s">
-        <v>639</v>
+      <c r="F8" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -20345,8 +20567,8 @@
       <c r="E9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="136" t="s">
-        <v>639</v>
+      <c r="F9" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -20360,658 +20582,658 @@
         <v>25</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>634</v>
+        <v>611</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="136" t="s">
-        <v>639</v>
+      <c r="F10" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>377</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="136" t="s">
-        <v>639</v>
+        <v>46</v>
+      </c>
+      <c r="F11" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>377</v>
+        <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="136" t="s">
-        <v>639</v>
+        <v>48</v>
+      </c>
+      <c r="F12" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>377</v>
+        <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="136" t="s">
-        <v>639</v>
+        <v>51</v>
+      </c>
+      <c r="F13" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>377</v>
+        <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="136" t="s">
-        <v>639</v>
+        <v>53</v>
+      </c>
+      <c r="F14" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>40</v>
+        <v>169</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>377</v>
+        <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>37</v>
+        <v>168</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="136" t="s">
-        <v>639</v>
+        <v>170</v>
+      </c>
+      <c r="F15" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>42</v>
+        <v>172</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>377</v>
+        <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>37</v>
+        <v>171</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="136" t="s">
-        <v>639</v>
+        <v>173</v>
+      </c>
+      <c r="F16" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="136" t="s">
-        <v>639</v>
+        <v>176</v>
+      </c>
+      <c r="F17" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>44</v>
+        <v>177</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="136" t="s">
-        <v>639</v>
+        <v>179</v>
+      </c>
+      <c r="F18" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>50</v>
+        <v>181</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>49</v>
+        <v>180</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="136" t="s">
-        <v>639</v>
+        <v>182</v>
+      </c>
+      <c r="F19" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>52</v>
+        <v>184</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>49</v>
+        <v>183</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" s="136" t="s">
-        <v>639</v>
+        <v>185</v>
+      </c>
+      <c r="F20" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="A21" s="105" t="s">
+        <v>646</v>
+      </c>
+      <c r="B21" s="105" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="105" t="s">
+        <v>648</v>
+      </c>
+      <c r="D21" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="136" t="s">
-        <v>639</v>
+      <c r="E21" s="105" t="s">
+        <v>650</v>
+      </c>
+      <c r="F21" s="113" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" s="136" t="s">
-        <v>639</v>
+      <c r="A22" s="105" t="s">
+        <v>647</v>
+      </c>
+      <c r="B22" s="105" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="105" t="s">
+        <v>649</v>
+      </c>
+      <c r="D22" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="105" t="s">
+        <v>651</v>
+      </c>
+      <c r="F22" s="113" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>377</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F23" s="136" t="s">
-        <v>639</v>
+        <v>32</v>
+      </c>
+      <c r="F23" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>377</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24" s="136" t="s">
-        <v>639</v>
+        <v>34</v>
+      </c>
+      <c r="F24" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>377</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F25" s="136" t="s">
-        <v>639</v>
+        <v>36</v>
+      </c>
+      <c r="F25" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>377</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F26" s="136" t="s">
-        <v>639</v>
+        <v>39</v>
+      </c>
+      <c r="F26" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>377</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F27" s="136" t="s">
-        <v>639</v>
+        <v>41</v>
+      </c>
+      <c r="F27" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>377</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F28" s="136" t="s">
-        <v>639</v>
+        <v>43</v>
+      </c>
+      <c r="F28" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>377</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F29" s="136" t="s">
-        <v>639</v>
+        <v>56</v>
+      </c>
+      <c r="F29" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>377</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F30" s="136" t="s">
-        <v>639</v>
+        <v>58</v>
+      </c>
+      <c r="F30" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>377</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F31" s="136" t="s">
-        <v>639</v>
+        <v>61</v>
+      </c>
+      <c r="F31" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>377</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>59</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F32" s="136" t="s">
-        <v>639</v>
+        <v>63</v>
+      </c>
+      <c r="F32" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>377</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F33" s="136" t="s">
-        <v>639</v>
+        <v>65</v>
+      </c>
+      <c r="F33" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>377</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F34" s="136" t="s">
-        <v>639</v>
+        <v>67</v>
+      </c>
+      <c r="F34" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>377</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F35" s="136" t="s">
-        <v>639</v>
+        <v>69</v>
+      </c>
+      <c r="F35" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>377</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F36" s="136" t="s">
-        <v>639</v>
+        <v>72</v>
+      </c>
+      <c r="F36" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>377</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F37" s="136" t="s">
-        <v>639</v>
+        <v>74</v>
+      </c>
+      <c r="F37" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>377</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F38" s="136" t="s">
-        <v>639</v>
+        <v>76</v>
+      </c>
+      <c r="F38" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>377</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F39" s="136" t="s">
-        <v>639</v>
+        <v>78</v>
+      </c>
+      <c r="F39" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>377</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F40" s="136" t="s">
-        <v>639</v>
+        <v>80</v>
+      </c>
+      <c r="F40" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>377</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F41" s="136" t="s">
-        <v>639</v>
+        <v>82</v>
+      </c>
+      <c r="F41" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>377</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F42" s="136" t="s">
-        <v>639</v>
+        <v>84</v>
+      </c>
+      <c r="F42" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>377</v>
@@ -21023,15 +21245,15 @@
         <v>9</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F43" s="136" t="s">
-        <v>639</v>
+        <v>87</v>
+      </c>
+      <c r="F43" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>377</v>
@@ -21043,730 +21265,730 @@
         <v>9</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F44" s="136" t="s">
-        <v>639</v>
+        <v>89</v>
+      </c>
+      <c r="F44" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>377</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F45" s="136" t="s">
-        <v>639</v>
+        <v>91</v>
+      </c>
+      <c r="F45" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>377</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F46" s="136" t="s">
-        <v>639</v>
+        <v>93</v>
+      </c>
+      <c r="F46" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>377</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F47" s="136" t="s">
-        <v>639</v>
+        <v>95</v>
+      </c>
+      <c r="F47" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>377</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F48" s="136" t="s">
-        <v>639</v>
+        <v>97</v>
+      </c>
+      <c r="F48" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>377</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>540</v>
+        <v>85</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F49" s="136" t="s">
-        <v>639</v>
+        <v>99</v>
+      </c>
+      <c r="F49" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>377</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>540</v>
+        <v>85</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F50" s="136" t="s">
-        <v>639</v>
+        <v>101</v>
+      </c>
+      <c r="F50" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>377</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>540</v>
+        <v>85</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F51" s="136" t="s">
-        <v>639</v>
+        <v>103</v>
+      </c>
+      <c r="F51" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>377</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>540</v>
+        <v>85</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F52" s="136" t="s">
-        <v>639</v>
+        <v>105</v>
+      </c>
+      <c r="F52" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>377</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>540</v>
+        <v>106</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F53" s="136" t="s">
-        <v>639</v>
+        <v>108</v>
+      </c>
+      <c r="F53" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>377</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>541</v>
+        <v>106</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F54" s="136" t="s">
-        <v>639</v>
+        <v>110</v>
+      </c>
+      <c r="F54" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>377</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>541</v>
+        <v>106</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F55" s="136" t="s">
-        <v>639</v>
+        <v>112</v>
+      </c>
+      <c r="F55" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>377</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>541</v>
+        <v>106</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F56" s="136" t="s">
-        <v>639</v>
+        <v>114</v>
+      </c>
+      <c r="F56" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>377</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F57" s="136" t="s">
-        <v>639</v>
+        <v>116</v>
+      </c>
+      <c r="F57" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>377</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F58" s="136" t="s">
-        <v>639</v>
+        <v>118</v>
+      </c>
+      <c r="F58" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>377</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>135</v>
+        <v>540</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F59" s="136" t="s">
-        <v>639</v>
+        <v>120</v>
+      </c>
+      <c r="F59" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>377</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>135</v>
+        <v>540</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F60" s="136" t="s">
-        <v>639</v>
+        <v>122</v>
+      </c>
+      <c r="F60" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>377</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>135</v>
+        <v>540</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F61" s="136" t="s">
-        <v>639</v>
+        <v>124</v>
+      </c>
+      <c r="F61" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>377</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>135</v>
+        <v>541</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F62" s="136" t="s">
-        <v>639</v>
+        <v>126</v>
+      </c>
+      <c r="F62" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>377</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>135</v>
+        <v>541</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F63" s="136" t="s">
-        <v>639</v>
+        <v>128</v>
+      </c>
+      <c r="F63" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>377</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>135</v>
+        <v>541</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F64" s="136" t="s">
-        <v>639</v>
+        <v>130</v>
+      </c>
+      <c r="F64" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>377</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>135</v>
+        <v>541</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F65" s="136" t="s">
-        <v>639</v>
+        <v>132</v>
+      </c>
+      <c r="F65" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>377</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>150</v>
+        <v>541</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F66" s="136" t="s">
-        <v>639</v>
+        <v>134</v>
+      </c>
+      <c r="F66" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>377</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F67" s="136" t="s">
-        <v>639</v>
+        <v>137</v>
+      </c>
+      <c r="F67" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>377</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F68" s="136" t="s">
-        <v>639</v>
+        <v>139</v>
+      </c>
+      <c r="F68" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>377</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F69" s="136" t="s">
-        <v>639</v>
+        <v>141</v>
+      </c>
+      <c r="F69" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>377</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F70" s="136" t="s">
-        <v>639</v>
+        <v>143</v>
+      </c>
+      <c r="F70" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>377</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F71" s="136" t="s">
-        <v>639</v>
+        <v>145</v>
+      </c>
+      <c r="F71" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>377</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F72" s="136" t="s">
-        <v>639</v>
+        <v>147</v>
+      </c>
+      <c r="F72" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>6</v>
+        <v>377</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F73" s="136" t="s">
-        <v>639</v>
+        <v>149</v>
+      </c>
+      <c r="F73" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>6</v>
+        <v>377</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F74" s="136" t="s">
-        <v>639</v>
+        <v>152</v>
+      </c>
+      <c r="F74" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>6</v>
+        <v>377</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F75" s="136" t="s">
-        <v>639</v>
+        <v>154</v>
+      </c>
+      <c r="F75" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>6</v>
+        <v>377</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F76" s="136" t="s">
-        <v>639</v>
+        <v>156</v>
+      </c>
+      <c r="F76" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>6</v>
+        <v>377</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F77" s="136" t="s">
-        <v>639</v>
+        <v>158</v>
+      </c>
+      <c r="F77" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>6</v>
+        <v>377</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F78" s="136" t="s">
-        <v>639</v>
+        <v>160</v>
+      </c>
+      <c r="F78" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="129" t="s">
-        <v>671</v>
-      </c>
-      <c r="B79" s="129" t="s">
-        <v>6</v>
-      </c>
-      <c r="C79" s="129" t="s">
-        <v>673</v>
-      </c>
-      <c r="D79" s="129" t="s">
+      <c r="A79" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E79" s="129" t="s">
-        <v>675</v>
-      </c>
-      <c r="F79" s="137" t="s">
-        <v>678</v>
+      <c r="E79" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F79" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="129" t="s">
-        <v>672</v>
-      </c>
-      <c r="B80" s="129" t="s">
-        <v>6</v>
-      </c>
-      <c r="C80" s="129" t="s">
-        <v>674</v>
-      </c>
-      <c r="D80" s="129" t="s">
+      <c r="A80" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E80" s="129" t="s">
-        <v>676</v>
-      </c>
-      <c r="F80" s="137" t="s">
-        <v>677</v>
+      <c r="E80" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F80" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -21785,8 +22007,8 @@
       <c r="E81" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F81" s="136" t="s">
-        <v>639</v>
+      <c r="F81" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -21805,8 +22027,8 @@
       <c r="E82" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F82" s="136" t="s">
-        <v>639</v>
+      <c r="F82" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -21825,8 +22047,8 @@
       <c r="E83" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F83" s="136" t="s">
-        <v>639</v>
+      <c r="F83" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -21845,8 +22067,8 @@
       <c r="E84" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="F84" s="136" t="s">
-        <v>639</v>
+      <c r="F84" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -21865,8 +22087,8 @@
       <c r="E85" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F85" s="136" t="s">
-        <v>639</v>
+      <c r="F85" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -21885,8 +22107,8 @@
       <c r="E86" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F86" s="136" t="s">
-        <v>639</v>
+      <c r="F86" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -21905,8 +22127,8 @@
       <c r="E87" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F87" s="136" t="s">
-        <v>639</v>
+      <c r="F87" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -21925,8 +22147,8 @@
       <c r="E88" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F88" s="136" t="s">
-        <v>639</v>
+      <c r="F88" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -21945,8 +22167,8 @@
       <c r="E89" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F89" s="136" t="s">
-        <v>639</v>
+      <c r="F89" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -21965,8 +22187,8 @@
       <c r="E90" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F90" s="136" t="s">
-        <v>639</v>
+      <c r="F90" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -21985,8 +22207,8 @@
       <c r="E91" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F91" s="136" t="s">
-        <v>639</v>
+      <c r="F91" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -22005,8 +22227,8 @@
       <c r="E92" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="F92" s="136" t="s">
-        <v>639</v>
+      <c r="F92" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -22025,8 +22247,8 @@
       <c r="E93" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="F93" s="136" t="s">
-        <v>639</v>
+      <c r="F93" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -22045,8 +22267,8 @@
       <c r="E94" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="F94" s="136" t="s">
-        <v>639</v>
+      <c r="F94" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -22065,8 +22287,8 @@
       <c r="E95" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F95" s="136" t="s">
-        <v>639</v>
+      <c r="F95" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -22085,148 +22307,148 @@
       <c r="E96" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="F96" s="136" t="s">
-        <v>639</v>
+      <c r="F96" s="112" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="128" t="s">
-        <v>641</v>
-      </c>
-      <c r="B97" s="128" t="s">
-        <v>642</v>
-      </c>
-      <c r="C97" s="128" t="s">
-        <v>643</v>
-      </c>
-      <c r="D97" s="128" t="s">
+      <c r="A97" s="104" t="s">
+        <v>618</v>
+      </c>
+      <c r="B97" s="104" t="s">
+        <v>619</v>
+      </c>
+      <c r="C97" s="104" t="s">
+        <v>620</v>
+      </c>
+      <c r="D97" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="E97" s="128" t="s">
-        <v>644</v>
-      </c>
-      <c r="F97" s="137" t="s">
-        <v>661</v>
+      <c r="E97" s="104" t="s">
+        <v>621</v>
+      </c>
+      <c r="F97" s="113" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="128" t="s">
-        <v>645</v>
-      </c>
-      <c r="B98" s="128" t="s">
-        <v>642</v>
-      </c>
-      <c r="C98" s="128" t="s">
+      <c r="A98" s="104" t="s">
+        <v>622</v>
+      </c>
+      <c r="B98" s="104" t="s">
+        <v>619</v>
+      </c>
+      <c r="C98" s="104" t="s">
         <v>540</v>
       </c>
-      <c r="D98" s="128" t="s">
+      <c r="D98" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="E98" s="128" t="s">
-        <v>646</v>
-      </c>
-      <c r="F98" s="139" t="s">
-        <v>660</v>
+      <c r="E98" s="104" t="s">
+        <v>623</v>
+      </c>
+      <c r="F98" s="115" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="128" t="s">
-        <v>647</v>
-      </c>
-      <c r="B99" s="128" t="s">
-        <v>642</v>
-      </c>
-      <c r="C99" s="128" t="s">
+      <c r="A99" s="104" t="s">
+        <v>624</v>
+      </c>
+      <c r="B99" s="104" t="s">
+        <v>619</v>
+      </c>
+      <c r="C99" s="104" t="s">
         <v>541</v>
       </c>
-      <c r="D99" s="128" t="s">
+      <c r="D99" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="E99" s="128" t="s">
-        <v>648</v>
-      </c>
-      <c r="F99" s="139" t="s">
-        <v>660</v>
+      <c r="E99" s="104" t="s">
+        <v>625</v>
+      </c>
+      <c r="F99" s="115" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="128" t="s">
-        <v>649</v>
-      </c>
-      <c r="B100" s="128" t="s">
-        <v>642</v>
-      </c>
-      <c r="C100" s="128" t="s">
-        <v>650</v>
-      </c>
-      <c r="D100" s="128" t="s">
+      <c r="A100" s="104" t="s">
+        <v>626</v>
+      </c>
+      <c r="B100" s="104" t="s">
+        <v>619</v>
+      </c>
+      <c r="C100" s="104" t="s">
+        <v>627</v>
+      </c>
+      <c r="D100" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="E100" s="128" t="s">
-        <v>651</v>
-      </c>
-      <c r="F100" s="139" t="s">
-        <v>660</v>
+      <c r="E100" s="104" t="s">
+        <v>628</v>
+      </c>
+      <c r="F100" s="115" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="128" t="s">
-        <v>652</v>
-      </c>
-      <c r="B101" s="128" t="s">
-        <v>642</v>
-      </c>
-      <c r="C101" s="128" t="s">
-        <v>653</v>
-      </c>
-      <c r="D101" s="128" t="s">
+      <c r="A101" s="104" t="s">
+        <v>629</v>
+      </c>
+      <c r="B101" s="104" t="s">
+        <v>619</v>
+      </c>
+      <c r="C101" s="104" t="s">
+        <v>630</v>
+      </c>
+      <c r="D101" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="E101" s="128" t="s">
-        <v>654</v>
-      </c>
-      <c r="F101" s="139" t="s">
-        <v>660</v>
+      <c r="E101" s="104" t="s">
+        <v>631</v>
+      </c>
+      <c r="F101" s="115" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="128" t="s">
-        <v>655</v>
-      </c>
-      <c r="B102" s="128" t="s">
-        <v>642</v>
-      </c>
-      <c r="C102" s="128" t="s">
+      <c r="A102" s="104" t="s">
+        <v>632</v>
+      </c>
+      <c r="B102" s="104" t="s">
+        <v>619</v>
+      </c>
+      <c r="C102" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="D102" s="128" t="s">
+      <c r="D102" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="E102" s="128" t="s">
-        <v>656</v>
-      </c>
-      <c r="F102" s="139" t="s">
-        <v>660</v>
+      <c r="E102" s="104" t="s">
+        <v>633</v>
+      </c>
+      <c r="F102" s="115" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="128" t="s">
-        <v>657</v>
-      </c>
-      <c r="B103" s="128" t="s">
-        <v>642</v>
-      </c>
-      <c r="C103" s="128" t="s">
-        <v>658</v>
-      </c>
-      <c r="D103" s="128" t="s">
+      <c r="A103" s="104" t="s">
+        <v>634</v>
+      </c>
+      <c r="B103" s="104" t="s">
+        <v>619</v>
+      </c>
+      <c r="C103" s="104" t="s">
+        <v>635</v>
+      </c>
+      <c r="D103" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="E103" s="128" t="s">
-        <v>659</v>
-      </c>
-      <c r="F103" s="139" t="s">
-        <v>660</v>
+      <c r="E103" s="104" t="s">
+        <v>636</v>
+      </c>
+      <c r="F103" s="115" t="s">
+        <v>637</v>
       </c>
     </row>
   </sheetData>
@@ -22237,14 +22459,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973EC026-A464-443F-92E7-BCE9B3C94CFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973EC026-A464-443F-92E7-BCE9B3C94CFE}">
   <sheetPr>
     <tabColor theme="3" tint="0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -22253,7 +22475,7 @@
     <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="111.5" style="133" customWidth="1"/>
+    <col min="5" max="5" width="111.5" style="109" customWidth="1"/>
     <col min="6" max="6" width="33.875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -22270,11 +22492,11 @@
       <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="134" t="s">
+      <c r="E1" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="127" t="s">
-        <v>638</v>
+      <c r="F1" s="2" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -22290,11 +22512,11 @@
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="131" t="s">
+      <c r="E2" s="107" t="s">
         <v>221</v>
       </c>
-      <c r="F2" s="136" t="s">
-        <v>639</v>
+      <c r="F2" s="112" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -22310,11 +22532,11 @@
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="131" t="s">
+      <c r="E3" s="107" t="s">
         <v>223</v>
       </c>
-      <c r="F3" s="136" t="s">
-        <v>639</v>
+      <c r="F3" s="112" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -22330,11 +22552,11 @@
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="131" t="s">
+      <c r="E4" s="107" t="s">
         <v>225</v>
       </c>
-      <c r="F4" s="136" t="s">
-        <v>639</v>
+      <c r="F4" s="112" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -22350,11 +22572,11 @@
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="131" t="s">
+      <c r="E5" s="107" t="s">
         <v>227</v>
       </c>
-      <c r="F5" s="136" t="s">
-        <v>639</v>
+      <c r="F5" s="112" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -22370,11 +22592,11 @@
       <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="131" t="s">
+      <c r="E6" s="107" t="s">
         <v>229</v>
       </c>
-      <c r="F6" s="136" t="s">
-        <v>639</v>
+      <c r="F6" s="112" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -22390,11 +22612,11 @@
       <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="131" t="s">
+      <c r="E7" s="107" t="s">
         <v>231</v>
       </c>
-      <c r="F7" s="136" t="s">
-        <v>639</v>
+      <c r="F7" s="112" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -22410,11 +22632,11 @@
       <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="131" t="s">
+      <c r="E8" s="107" t="s">
         <v>234</v>
       </c>
-      <c r="F8" s="136" t="s">
-        <v>639</v>
+      <c r="F8" s="112" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -22430,11 +22652,11 @@
       <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="131" t="s">
+      <c r="E9" s="107" t="s">
         <v>236</v>
       </c>
-      <c r="F9" s="136" t="s">
-        <v>639</v>
+      <c r="F9" s="112" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -22450,11 +22672,11 @@
       <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="131" t="s">
+      <c r="E10" s="107" t="s">
         <v>238</v>
       </c>
-      <c r="F10" s="136" t="s">
-        <v>639</v>
+      <c r="F10" s="112" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -22470,11 +22692,11 @@
       <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="131" t="s">
+      <c r="E11" s="107" t="s">
         <v>240</v>
       </c>
-      <c r="F11" s="136" t="s">
-        <v>639</v>
+      <c r="F11" s="112" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -22490,11 +22712,11 @@
       <c r="D12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="131" t="s">
+      <c r="E12" s="107" t="s">
         <v>243</v>
       </c>
-      <c r="F12" s="136" t="s">
-        <v>639</v>
+      <c r="F12" s="112" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -22510,11 +22732,11 @@
       <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="131" t="s">
+      <c r="E13" s="107" t="s">
         <v>245</v>
       </c>
-      <c r="F13" s="136" t="s">
-        <v>639</v>
+      <c r="F13" s="112" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -22530,11 +22752,11 @@
       <c r="D14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="131" t="s">
+      <c r="E14" s="107" t="s">
         <v>247</v>
       </c>
-      <c r="F14" s="136" t="s">
-        <v>639</v>
+      <c r="F14" s="112" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -22550,11 +22772,11 @@
       <c r="D15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="131" t="s">
+      <c r="E15" s="107" t="s">
         <v>250</v>
       </c>
-      <c r="F15" s="136" t="s">
-        <v>639</v>
+      <c r="F15" s="112" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -22570,11 +22792,11 @@
       <c r="D16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="131" t="s">
+      <c r="E16" s="107" t="s">
         <v>252</v>
       </c>
-      <c r="F16" s="136" t="s">
-        <v>639</v>
+      <c r="F16" s="112" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -22590,11 +22812,11 @@
       <c r="D17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="131" t="s">
+      <c r="E17" s="107" t="s">
         <v>254</v>
       </c>
-      <c r="F17" s="136" t="s">
-        <v>639</v>
+      <c r="F17" s="112" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -22610,11 +22832,11 @@
       <c r="D18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="131" t="s">
+      <c r="E18" s="107" t="s">
         <v>256</v>
       </c>
-      <c r="F18" s="136" t="s">
-        <v>639</v>
+      <c r="F18" s="112" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -22630,11 +22852,11 @@
       <c r="D19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="131" t="s">
+      <c r="E19" s="107" t="s">
         <v>258</v>
       </c>
-      <c r="F19" s="136" t="s">
-        <v>639</v>
+      <c r="F19" s="112" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -22650,11 +22872,11 @@
       <c r="D20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="131" t="s">
+      <c r="E20" s="107" t="s">
         <v>261</v>
       </c>
-      <c r="F20" s="136" t="s">
-        <v>639</v>
+      <c r="F20" s="112" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -22670,11 +22892,11 @@
       <c r="D21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="131" t="s">
+      <c r="E21" s="107" t="s">
         <v>263</v>
       </c>
-      <c r="F21" s="136" t="s">
-        <v>639</v>
+      <c r="F21" s="112" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -22690,11 +22912,11 @@
       <c r="D22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="131" t="s">
+      <c r="E22" s="107" t="s">
         <v>265</v>
       </c>
-      <c r="F22" s="136" t="s">
-        <v>639</v>
+      <c r="F22" s="112" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -22710,11 +22932,11 @@
       <c r="D23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="131" t="s">
+      <c r="E23" s="107" t="s">
         <v>267</v>
       </c>
-      <c r="F23" s="136" t="s">
-        <v>639</v>
+      <c r="F23" s="112" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -22730,11 +22952,11 @@
       <c r="D24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="131" t="s">
+      <c r="E24" s="107" t="s">
         <v>269</v>
       </c>
-      <c r="F24" s="136" t="s">
-        <v>639</v>
+      <c r="F24" s="112" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -22750,11 +22972,11 @@
       <c r="D25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="131" t="s">
+      <c r="E25" s="107" t="s">
         <v>167</v>
       </c>
-      <c r="F25" s="136" t="s">
-        <v>639</v>
+      <c r="F25" s="112" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -22770,11 +22992,11 @@
       <c r="D26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="131" t="s">
+      <c r="E26" s="107" t="s">
         <v>271</v>
       </c>
-      <c r="F26" s="136" t="s">
-        <v>639</v>
+      <c r="F26" s="112" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -22790,11 +23012,11 @@
       <c r="D27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="131" t="s">
+      <c r="E27" s="107" t="s">
         <v>273</v>
       </c>
-      <c r="F27" s="136" t="s">
-        <v>639</v>
+      <c r="F27" s="112" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -22810,11 +23032,11 @@
       <c r="D28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="131" t="s">
+      <c r="E28" s="107" t="s">
         <v>275</v>
       </c>
-      <c r="F28" s="136" t="s">
-        <v>639</v>
+      <c r="F28" s="112" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -22830,11 +23052,11 @@
       <c r="D29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="132" t="s">
+      <c r="E29" s="108" t="s">
         <v>277</v>
       </c>
-      <c r="F29" s="136" t="s">
-        <v>639</v>
+      <c r="F29" s="112" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -22850,11 +23072,11 @@
       <c r="D30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="132" t="s">
+      <c r="E30" s="108" t="s">
         <v>279</v>
       </c>
-      <c r="F30" s="136" t="s">
-        <v>639</v>
+      <c r="F30" s="112" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -22870,11 +23092,11 @@
       <c r="D31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="132" t="s">
+      <c r="E31" s="108" t="s">
         <v>281</v>
       </c>
-      <c r="F31" s="136" t="s">
-        <v>639</v>
+      <c r="F31" s="112" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -22890,11 +23112,11 @@
       <c r="D32" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="131" t="s">
+      <c r="E32" s="107" t="s">
         <v>283</v>
       </c>
-      <c r="F32" s="136" t="s">
-        <v>639</v>
+      <c r="F32" s="112" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -22910,11 +23132,11 @@
       <c r="D33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="131" t="s">
+      <c r="E33" s="107" t="s">
         <v>285</v>
       </c>
-      <c r="F33" s="136" t="s">
-        <v>639</v>
+      <c r="F33" s="112" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -22930,56 +23152,57 @@
       <c r="D34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="131" t="s">
+      <c r="E34" s="107" t="s">
         <v>287</v>
       </c>
-      <c r="F34" s="136" t="s">
+      <c r="F34" s="112" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="104" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="128" t="s">
-        <v>662</v>
-      </c>
-      <c r="B35" s="128" t="s">
+      <c r="B35" s="104" t="s">
         <v>514</v>
       </c>
-      <c r="C35" s="128" t="s">
+      <c r="C35" s="104" t="s">
         <v>180</v>
       </c>
-      <c r="D35" s="128" t="s">
+      <c r="D35" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="135" t="s">
-        <v>663</v>
-      </c>
-      <c r="F35" s="137" t="s">
-        <v>666</v>
+      <c r="E35" s="111" t="s">
+        <v>640</v>
+      </c>
+      <c r="F35" s="113" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="128" t="s">
-        <v>664</v>
-      </c>
-      <c r="B36" s="128" t="s">
+      <c r="A36" s="104" t="s">
+        <v>641</v>
+      </c>
+      <c r="B36" s="104" t="s">
         <v>514</v>
       </c>
-      <c r="C36" s="128" t="s">
+      <c r="C36" s="104" t="s">
         <v>183</v>
       </c>
-      <c r="D36" s="128" t="s">
+      <c r="D36" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="135" t="s">
-        <v>665</v>
-      </c>
-      <c r="F36" s="137" t="s">
-        <v>666</v>
+      <c r="E36" s="111" t="s">
+        <v>642</v>
+      </c>
+      <c r="F36" s="113" t="s">
+        <v>643</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -22987,8 +23210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876A2D7A-9C76-4F3A-9C65-5B376F65F2C7}">
   <dimension ref="A1:T52"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I58" sqref="I58"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -23030,15 +23253,15 @@
       <c r="A8" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="B8" s="122" t="s">
+      <c r="B8" s="171" t="s">
         <v>306</v>
       </c>
-      <c r="C8" s="122"/>
-      <c r="D8" s="122"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="122"/>
-      <c r="G8" s="122"/>
-      <c r="H8" s="122"/>
+      <c r="C8" s="171"/>
+      <c r="D8" s="171"/>
+      <c r="E8" s="171"/>
+      <c r="F8" s="171"/>
+      <c r="G8" s="171"/>
+      <c r="H8" s="171"/>
     </row>
     <row r="9" spans="1:8" ht="33">
       <c r="A9" s="11" t="s">
@@ -23122,13 +23345,13 @@
       <c r="A13" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="B13" s="119" t="s">
+      <c r="B13" s="168" t="s">
         <v>315</v>
       </c>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="121"/>
+      <c r="C13" s="169"/>
+      <c r="D13" s="169"/>
+      <c r="E13" s="169"/>
+      <c r="F13" s="170"/>
       <c r="G13"/>
       <c r="H13"/>
     </row>
@@ -23198,13 +23421,13 @@
       <c r="A18" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="B18" s="119" t="s">
+      <c r="B18" s="168" t="s">
         <v>322</v>
       </c>
-      <c r="C18" s="120"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="120"/>
-      <c r="F18" s="121"/>
+      <c r="C18" s="169"/>
+      <c r="D18" s="169"/>
+      <c r="E18" s="169"/>
+      <c r="F18" s="170"/>
     </row>
     <row r="19" spans="1:20" ht="33">
       <c r="A19" s="11" t="s">
@@ -23270,16 +23493,16 @@
       <c r="A23" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="B23" s="119" t="s">
+      <c r="B23" s="168" t="s">
         <v>333</v>
       </c>
-      <c r="C23" s="120"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="120"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="120"/>
-      <c r="H23" s="120"/>
-      <c r="I23" s="121"/>
+      <c r="C23" s="169"/>
+      <c r="D23" s="169"/>
+      <c r="E23" s="169"/>
+      <c r="F23" s="169"/>
+      <c r="G23" s="169"/>
+      <c r="H23" s="169"/>
+      <c r="I23" s="170"/>
     </row>
     <row r="24" spans="1:20" ht="33">
       <c r="A24" s="11" t="s">
@@ -23373,14 +23596,14 @@
       <c r="A28" s="25" t="s">
         <v>314</v>
       </c>
-      <c r="B28" s="142" t="s">
+      <c r="B28" s="172" t="s">
         <v>348</v>
       </c>
-      <c r="C28" s="143"/>
-      <c r="D28" s="143"/>
-      <c r="E28" s="143"/>
-      <c r="F28" s="140"/>
-      <c r="G28" s="144"/>
+      <c r="C28" s="173"/>
+      <c r="D28" s="173"/>
+      <c r="E28" s="173"/>
+      <c r="F28" s="174"/>
+      <c r="G28" s="175"/>
       <c r="L28"/>
       <c r="M28"/>
       <c r="N28"/>
@@ -23395,25 +23618,25 @@
       <c r="A29" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="B29" s="141" t="s">
-        <v>637</v>
-      </c>
-      <c r="C29" s="141" t="s">
+      <c r="B29" s="116" t="s">
+        <v>614</v>
+      </c>
+      <c r="C29" s="116" t="s">
         <v>335</v>
       </c>
-      <c r="D29" s="141" t="s">
+      <c r="D29" s="116" t="s">
         <v>292</v>
       </c>
-      <c r="E29" s="146" t="s">
+      <c r="E29" s="118" t="s">
         <v>336</v>
       </c>
-      <c r="F29" s="145" t="s">
-        <v>667</v>
-      </c>
-      <c r="G29" s="155" t="s">
-        <v>668</v>
-      </c>
-      <c r="H29" s="154"/>
+      <c r="F29" s="117" t="s">
+        <v>644</v>
+      </c>
+      <c r="G29" s="127" t="s">
+        <v>645</v>
+      </c>
+      <c r="H29" s="126"/>
       <c r="L29"/>
       <c r="M29"/>
       <c r="N29"/>
@@ -23437,16 +23660,16 @@
       <c r="D30" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="E30" s="148" t="s">
+      <c r="E30" s="120" t="s">
         <v>307</v>
       </c>
-      <c r="F30" s="147" t="s">
+      <c r="F30" s="119" t="s">
         <v>307</v>
       </c>
-      <c r="G30" s="153" t="s">
+      <c r="G30" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="H30" s="154"/>
+      <c r="H30" s="126"/>
       <c r="L30"/>
       <c r="M30"/>
       <c r="N30"/>
@@ -23470,14 +23693,14 @@
       <c r="D31" s="28" t="s">
         <v>302</v>
       </c>
-      <c r="E31" s="149" t="s">
+      <c r="E31" s="121" t="s">
         <v>303</v>
       </c>
-      <c r="F31" s="150" t="s">
-        <v>669</v>
-      </c>
-      <c r="G31" s="152" t="s">
-        <v>670</v>
+      <c r="F31" s="122" t="s">
+        <v>646</v>
+      </c>
+      <c r="G31" s="124" t="s">
+        <v>647</v>
       </c>
       <c r="L31"/>
       <c r="M31"/>
@@ -23490,125 +23713,125 @@
       <c r="T31"/>
     </row>
     <row r="32" spans="1:20" ht="18" thickTop="1" thickBot="1">
-      <c r="A32" s="172"/>
-      <c r="B32" s="173"/>
-      <c r="C32" s="173"/>
-      <c r="D32" s="173"/>
-      <c r="E32" s="173"/>
-      <c r="F32" s="174"/>
-      <c r="G32" s="174"/>
+      <c r="A32" s="142"/>
+      <c r="B32" s="143"/>
+      <c r="C32" s="143"/>
+      <c r="D32" s="143"/>
+      <c r="E32" s="143"/>
+      <c r="F32" s="144"/>
+      <c r="G32" s="144"/>
     </row>
     <row r="33" spans="1:17" ht="17.25" thickBot="1">
-      <c r="A33" s="171" t="s">
+      <c r="A33" s="141" t="s">
         <v>314</v>
       </c>
-      <c r="B33" s="164" t="s">
+      <c r="B33" s="176" t="s">
         <v>349</v>
       </c>
-      <c r="C33" s="165"/>
-      <c r="D33" s="165"/>
-      <c r="E33" s="165"/>
-      <c r="F33" s="165"/>
-      <c r="G33" s="165"/>
-      <c r="H33" s="175"/>
+      <c r="C33" s="177"/>
+      <c r="D33" s="177"/>
+      <c r="E33" s="177"/>
+      <c r="F33" s="177"/>
+      <c r="G33" s="177"/>
+      <c r="H33" s="145"/>
     </row>
     <row r="34" spans="1:17" ht="33.75" thickTop="1">
       <c r="A34" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="B34" s="156" t="s">
+      <c r="B34" s="128" t="s">
         <v>342</v>
       </c>
-      <c r="C34" s="157" t="s">
+      <c r="C34" s="129" t="s">
         <v>344</v>
       </c>
-      <c r="D34" s="155" t="s">
+      <c r="D34" s="127" t="s">
         <v>345</v>
       </c>
-      <c r="E34" s="162" t="s">
+      <c r="E34" s="134" t="s">
         <v>346</v>
       </c>
-      <c r="F34" s="169" t="s">
+      <c r="F34" s="139" t="s">
         <v>347</v>
       </c>
-      <c r="G34" s="167" t="s">
-        <v>679</v>
-      </c>
-      <c r="H34" s="166"/>
+      <c r="G34" s="137" t="s">
+        <v>654</v>
+      </c>
+      <c r="H34" s="136"/>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="B35" s="158" t="s">
+      <c r="B35" s="130" t="s">
         <v>378</v>
       </c>
-      <c r="C35" s="159" t="s">
+      <c r="C35" s="131" t="s">
         <v>307</v>
       </c>
-      <c r="D35" s="153" t="s">
+      <c r="D35" s="125" t="s">
         <v>307</v>
       </c>
-      <c r="E35" s="161" t="s">
+      <c r="E35" s="133" t="s">
         <v>307</v>
       </c>
-      <c r="F35" s="148" t="s">
+      <c r="F35" s="120" t="s">
         <v>307</v>
       </c>
-      <c r="G35" s="168" t="s">
+      <c r="G35" s="138" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="17.25" thickBot="1">
-      <c r="A36" s="163" t="s">
+      <c r="A36" s="135" t="s">
         <v>311</v>
       </c>
-      <c r="B36" s="179" t="s">
+      <c r="B36" s="149" t="s">
         <v>343</v>
       </c>
-      <c r="C36" s="150" t="s">
+      <c r="C36" s="122" t="s">
         <v>300</v>
       </c>
-      <c r="D36" s="160" t="s">
+      <c r="D36" s="132" t="s">
         <v>300</v>
       </c>
-      <c r="E36" s="180" t="s">
+      <c r="E36" s="150" t="s">
         <v>350</v>
       </c>
-      <c r="F36" s="176" t="s">
+      <c r="F36" s="146" t="s">
         <v>351</v>
       </c>
-      <c r="G36" s="170" t="s">
+      <c r="G36" s="140" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="17.25" thickTop="1">
-      <c r="A37" s="178"/>
-      <c r="C37" s="151"/>
-      <c r="F37" s="177"/>
+      <c r="A37" s="148"/>
+      <c r="C37" s="123"/>
+      <c r="F37" s="147"/>
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="B38" s="122" t="s">
+      <c r="B38" s="171" t="s">
         <v>390</v>
       </c>
-      <c r="C38" s="122"/>
-      <c r="D38" s="122"/>
-      <c r="E38" s="122"/>
-      <c r="F38" s="122"/>
-      <c r="G38" s="122"/>
-      <c r="H38" s="122"/>
-      <c r="I38" s="122"/>
-      <c r="J38" s="122"/>
-      <c r="K38" s="122"/>
-      <c r="L38" s="122"/>
-      <c r="M38" s="122"/>
-      <c r="N38" s="122"/>
-      <c r="O38" s="122"/>
-      <c r="P38" s="122"/>
-      <c r="Q38" s="122"/>
+      <c r="C38" s="171"/>
+      <c r="D38" s="171"/>
+      <c r="E38" s="171"/>
+      <c r="F38" s="171"/>
+      <c r="G38" s="171"/>
+      <c r="H38" s="171"/>
+      <c r="I38" s="171"/>
+      <c r="J38" s="171"/>
+      <c r="K38" s="171"/>
+      <c r="L38" s="171"/>
+      <c r="M38" s="171"/>
+      <c r="N38" s="171"/>
+      <c r="O38" s="171"/>
+      <c r="P38" s="171"/>
+      <c r="Q38" s="171"/>
     </row>
     <row r="39" spans="1:17" ht="33">
       <c r="A39" s="11" t="s">
@@ -23726,7 +23949,7 @@
       <c r="C41" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="118" t="s">
+      <c r="D41" s="103" t="s">
         <v>360</v>
       </c>
       <c r="E41" s="19" t="s">
@@ -23741,7 +23964,7 @@
       <c r="H41" s="74" t="s">
         <v>328</v>
       </c>
-      <c r="I41" s="103" t="s">
+      <c r="I41" s="92" t="s">
         <v>329</v>
       </c>
       <c r="J41" s="16" t="s">
@@ -23778,13 +24001,13 @@
       <c r="A43" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="B43" s="122" t="s">
+      <c r="B43" s="171" t="s">
         <v>389</v>
       </c>
-      <c r="C43" s="122"/>
-      <c r="D43" s="122"/>
-      <c r="E43" s="122"/>
-      <c r="F43" s="122"/>
+      <c r="C43" s="171"/>
+      <c r="D43" s="171"/>
+      <c r="E43" s="171"/>
+      <c r="F43" s="171"/>
     </row>
     <row r="44" spans="1:17" ht="33">
       <c r="A44" s="11" t="s">
@@ -23850,17 +24073,17 @@
       <c r="A48" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="B48" s="119" t="s">
+      <c r="B48" s="168" t="s">
         <v>381</v>
       </c>
-      <c r="C48" s="120"/>
-      <c r="D48" s="120"/>
-      <c r="E48" s="120"/>
-      <c r="F48" s="120"/>
-      <c r="G48" s="120"/>
-      <c r="H48" s="120"/>
-      <c r="I48" s="120"/>
-      <c r="J48" s="121"/>
+      <c r="C48" s="169"/>
+      <c r="D48" s="169"/>
+      <c r="E48" s="169"/>
+      <c r="F48" s="169"/>
+      <c r="G48" s="169"/>
+      <c r="H48" s="169"/>
+      <c r="I48" s="169"/>
+      <c r="J48" s="170"/>
     </row>
     <row r="49" spans="1:10" ht="33">
       <c r="A49" s="11" t="s">
@@ -24013,10 +24236,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:BH245"/>
+  <dimension ref="A1:BH246"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L148" sqref="L148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -24043,7 +24266,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="59" t="s">
-        <v>606</v>
+        <v>584</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -24058,7 +24281,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="59" t="s">
-        <v>607</v>
+        <v>585</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -24177,8 +24400,8 @@
       </c>
     </row>
     <row r="21" spans="9:14" ht="17.25" thickBot="1">
-      <c r="I21" s="116" t="s">
-        <v>633</v>
+      <c r="I21" s="101" t="s">
+        <v>610</v>
       </c>
       <c r="J21" s="52" t="s">
         <v>10</v>
@@ -24231,8 +24454,8 @@
       </c>
     </row>
     <row r="24" spans="9:14">
-      <c r="I24" s="116" t="s">
-        <v>633</v>
+      <c r="I24" s="101" t="s">
+        <v>610</v>
       </c>
       <c r="J24" s="46" t="s">
         <v>25</v>
@@ -24251,8 +24474,8 @@
       </c>
     </row>
     <row r="25" spans="9:14">
-      <c r="I25" s="116" t="s">
-        <v>633</v>
+      <c r="I25" s="101" t="s">
+        <v>610</v>
       </c>
       <c r="J25" s="42" t="s">
         <v>30</v>
@@ -24272,13 +24495,13 @@
       </c>
     </row>
     <row r="26" spans="9:14">
-      <c r="I26" s="116" t="s">
-        <v>633</v>
-      </c>
-      <c r="J26" s="110" t="s">
+      <c r="I26" s="101" t="s">
+        <v>610</v>
+      </c>
+      <c r="J26" s="99" t="s">
         <v>457</v>
       </c>
-      <c r="K26" s="111" t="s">
+      <c r="K26" s="100" t="s">
         <v>309</v>
       </c>
       <c r="L26" s="51" t="s">
@@ -24354,8 +24577,8 @@
       </c>
     </row>
     <row r="38" spans="1:14">
-      <c r="I38" s="117" t="s">
-        <v>633</v>
+      <c r="I38" s="102" t="s">
+        <v>610</v>
       </c>
       <c r="J38" s="42" t="s">
         <v>455</v>
@@ -24375,8 +24598,8 @@
       </c>
     </row>
     <row r="39" spans="1:14">
-      <c r="I39" s="117" t="s">
-        <v>633</v>
+      <c r="I39" s="102" t="s">
+        <v>610</v>
       </c>
       <c r="J39" s="42" t="s">
         <v>456</v>
@@ -24396,8 +24619,8 @@
       </c>
     </row>
     <row r="40" spans="1:14">
-      <c r="I40" s="117" t="s">
-        <v>633</v>
+      <c r="I40" s="102" t="s">
+        <v>610</v>
       </c>
       <c r="J40" s="42" t="s">
         <v>460</v>
@@ -24458,8 +24681,8 @@
       </c>
     </row>
     <row r="61" spans="1:14">
-      <c r="I61" s="117" t="s">
-        <v>633</v>
+      <c r="I61" s="102" t="s">
+        <v>610</v>
       </c>
       <c r="J61" s="42" t="s">
         <v>358</v>
@@ -24479,8 +24702,8 @@
       </c>
     </row>
     <row r="62" spans="1:14">
-      <c r="I62" s="117" t="s">
-        <v>633</v>
+      <c r="I62" s="102" t="s">
+        <v>610</v>
       </c>
       <c r="J62" s="42" t="s">
         <v>359</v>
@@ -24500,8 +24723,8 @@
       </c>
     </row>
     <row r="63" spans="1:14">
-      <c r="I63" s="117" t="s">
-        <v>633</v>
+      <c r="I63" s="102" t="s">
+        <v>610</v>
       </c>
       <c r="J63" s="42" t="s">
         <v>462</v>
@@ -24521,8 +24744,8 @@
       </c>
     </row>
     <row r="64" spans="1:14">
-      <c r="I64" s="117" t="s">
-        <v>633</v>
+      <c r="I64" s="102" t="s">
+        <v>610</v>
       </c>
       <c r="J64" s="42" t="s">
         <v>463</v>
@@ -24587,8 +24810,8 @@
       </c>
     </row>
     <row r="86" spans="1:14">
-      <c r="I86" s="117" t="s">
-        <v>633</v>
+      <c r="I86" s="102" t="s">
+        <v>610</v>
       </c>
       <c r="J86" s="40" t="s">
         <v>334</v>
@@ -24608,8 +24831,8 @@
       </c>
     </row>
     <row r="87" spans="1:14">
-      <c r="I87" s="117" t="s">
-        <v>633</v>
+      <c r="I87" s="102" t="s">
+        <v>610</v>
       </c>
       <c r="J87" s="40" t="s">
         <v>335</v>
@@ -24629,8 +24852,8 @@
       </c>
     </row>
     <row r="88" spans="1:14">
-      <c r="I88" s="117" t="s">
-        <v>633</v>
+      <c r="I88" s="102" t="s">
+        <v>610</v>
       </c>
       <c r="J88" s="40" t="s">
         <v>475</v>
@@ -24650,8 +24873,8 @@
       </c>
     </row>
     <row r="89" spans="1:14">
-      <c r="I89" s="117" t="s">
-        <v>633</v>
+      <c r="I89" s="102" t="s">
+        <v>610</v>
       </c>
       <c r="J89" s="40" t="s">
         <v>476</v>
@@ -24707,8 +24930,8 @@
       </c>
     </row>
     <row r="92" spans="1:14">
-      <c r="I92" s="117" t="s">
-        <v>633</v>
+      <c r="I92" s="102" t="s">
+        <v>610</v>
       </c>
       <c r="J92" s="42" t="s">
         <v>186</v>
@@ -24728,8 +24951,8 @@
       </c>
     </row>
     <row r="93" spans="1:14">
-      <c r="I93" s="117" t="s">
-        <v>633</v>
+      <c r="I93" s="102" t="s">
+        <v>610</v>
       </c>
       <c r="J93" s="42" t="s">
         <v>341</v>
@@ -24760,17 +24983,17 @@
     </row>
     <row r="110" spans="1:10">
       <c r="J110" s="60" t="s">
-        <v>608</v>
+        <v>586</v>
       </c>
     </row>
     <row r="111" spans="1:10">
       <c r="J111" s="60" t="s">
-        <v>616</v>
+        <v>594</v>
       </c>
     </row>
     <row r="112" spans="1:10">
       <c r="J112" s="66" t="s">
-        <v>609</v>
+        <v>587</v>
       </c>
     </row>
     <row r="113" spans="10:14">
@@ -24863,7 +25086,7 @@
     </row>
     <row r="134" spans="1:14">
       <c r="J134" s="35" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
     </row>
     <row r="135" spans="1:14">
@@ -24873,7 +25096,7 @@
     </row>
     <row r="136" spans="1:14">
       <c r="J136" s="60" t="s">
-        <v>610</v>
+        <v>588</v>
       </c>
     </row>
     <row r="137" spans="1:14">
@@ -24894,103 +25117,103 @@
       </c>
     </row>
     <row r="138" spans="1:14" ht="17.25" thickBot="1">
-      <c r="J138" s="108" t="s">
+      <c r="J138" s="97" t="s">
         <v>342</v>
       </c>
-      <c r="K138" s="109" t="s">
+      <c r="K138" s="98" t="s">
         <v>343</v>
       </c>
       <c r="L138" s="48" t="s">
-        <v>627</v>
+        <v>605</v>
       </c>
       <c r="M138" s="48" t="s">
-        <v>628</v>
+        <v>606</v>
       </c>
       <c r="N138" s="48" t="s">
-        <v>630</v>
+        <v>608</v>
       </c>
     </row>
     <row r="139" spans="1:14" ht="18" thickTop="1" thickBot="1">
-      <c r="J139" s="184" t="s">
+      <c r="J139" s="154" t="s">
         <v>496</v>
       </c>
-      <c r="K139" s="185" t="s">
+      <c r="K139" s="155" t="s">
         <v>300</v>
       </c>
-      <c r="L139" s="185" t="s">
-        <v>625</v>
-      </c>
-      <c r="M139" s="185" t="s">
+      <c r="L139" s="155" t="s">
+        <v>603</v>
+      </c>
+      <c r="M139" s="155" t="s">
         <v>500</v>
       </c>
-      <c r="N139" s="186" t="s">
-        <v>629</v>
+      <c r="N139" s="156" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="140" spans="1:14" ht="17.25" thickBot="1">
-      <c r="J140" s="187" t="s">
+      <c r="J140" s="157" t="s">
         <v>497</v>
       </c>
-      <c r="K140" s="188" t="s">
+      <c r="K140" s="158" t="s">
         <v>300</v>
       </c>
-      <c r="L140" s="188" t="s">
+      <c r="L140" s="158" t="s">
         <v>501</v>
       </c>
-      <c r="M140" s="188"/>
-      <c r="N140" s="189" t="s">
-        <v>629</v>
+      <c r="M140" s="158"/>
+      <c r="N140" s="159" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="141" spans="1:14" ht="18" thickTop="1" thickBot="1">
-      <c r="J141" s="181" t="s">
+      <c r="J141" s="151" t="s">
         <v>498</v>
       </c>
-      <c r="K141" s="182" t="s">
+      <c r="K141" s="152" t="s">
         <v>350</v>
       </c>
-      <c r="L141" s="183" t="s">
+      <c r="L141" s="153" t="s">
         <v>560</v>
       </c>
-      <c r="M141" s="183" t="s">
-        <v>631</v>
-      </c>
-      <c r="N141" s="190" t="s">
-        <v>629</v>
+      <c r="M141" s="153" t="s">
+        <v>674</v>
+      </c>
+      <c r="N141" s="160" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="142" spans="1:14" ht="17.25" thickBot="1">
-      <c r="J142" s="191" t="s">
+      <c r="J142" s="161" t="s">
         <v>499</v>
       </c>
-      <c r="K142" s="192" t="s">
+      <c r="K142" s="162" t="s">
         <v>351</v>
       </c>
-      <c r="L142" s="193" t="s">
-        <v>626</v>
-      </c>
-      <c r="M142" s="193" t="s">
-        <v>632</v>
-      </c>
-      <c r="N142" s="194" t="s">
-        <v>629</v>
+      <c r="L142" s="163" t="s">
+        <v>604</v>
+      </c>
+      <c r="M142" s="163" t="s">
+        <v>609</v>
+      </c>
+      <c r="N142" s="164" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="143" spans="1:14" ht="18" thickTop="1" thickBot="1">
-      <c r="J143" s="195" t="s">
-        <v>679</v>
-      </c>
-      <c r="K143" s="196" t="s">
-        <v>351</v>
-      </c>
-      <c r="L143" s="196" t="s">
-        <v>626</v>
-      </c>
-      <c r="M143" s="196" t="s">
-        <v>632</v>
-      </c>
-      <c r="N143" s="197" t="s">
-        <v>629</v>
+      <c r="J143" s="165" t="s">
+        <v>654</v>
+      </c>
+      <c r="K143" s="166" t="s">
+        <v>7</v>
+      </c>
+      <c r="L143" s="166" t="s">
+        <v>675</v>
+      </c>
+      <c r="M143" s="166" t="s">
+        <v>676</v>
+      </c>
+      <c r="N143" s="167" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="144" spans="1:14" ht="17.25" thickTop="1"/>
@@ -25001,12 +25224,12 @@
     </row>
     <row r="159" spans="1:10">
       <c r="J159" s="35" t="s">
-        <v>680</v>
+        <v>655</v>
       </c>
     </row>
     <row r="160" spans="1:10">
       <c r="J160" s="60" t="s">
-        <v>611</v>
+        <v>589</v>
       </c>
     </row>
     <row r="161" spans="10:60">
@@ -25112,7 +25335,7 @@
         <v>525</v>
       </c>
       <c r="N163" s="39"/>
-      <c r="Q163" s="124" t="s">
+      <c r="Q163" s="179" t="s">
         <v>352</v>
       </c>
       <c r="R163" s="32" t="s">
@@ -25213,7 +25436,7 @@
         <v>528</v>
       </c>
       <c r="N164" s="39"/>
-      <c r="Q164" s="124"/>
+      <c r="Q164" s="179"/>
       <c r="R164" s="32" t="s">
         <v>524</v>
       </c>
@@ -25292,7 +25515,7 @@
         <v>529</v>
       </c>
       <c r="N165" s="39"/>
-      <c r="Q165" s="123" t="s">
+      <c r="Q165" s="178" t="s">
         <v>542</v>
       </c>
       <c r="R165" s="32" t="s">
@@ -25373,7 +25596,7 @@
         <v>530</v>
       </c>
       <c r="N166" s="39"/>
-      <c r="Q166" s="124"/>
+      <c r="Q166" s="179"/>
       <c r="R166" s="32" t="s">
         <v>10</v>
       </c>
@@ -25452,7 +25675,7 @@
         <v>531</v>
       </c>
       <c r="N167" s="39"/>
-      <c r="Q167" s="124" t="s">
+      <c r="Q167" s="179" t="s">
         <v>354</v>
       </c>
       <c r="R167" s="32" t="s">
@@ -25533,7 +25756,7 @@
         <v>532</v>
       </c>
       <c r="N168" s="39"/>
-      <c r="Q168" s="124"/>
+      <c r="Q168" s="179"/>
       <c r="R168" s="32" t="s">
         <v>537</v>
       </c>
@@ -25612,7 +25835,7 @@
         <v>535</v>
       </c>
       <c r="N169" s="39"/>
-      <c r="Q169" s="124" t="s">
+      <c r="Q169" s="179" t="s">
         <v>355</v>
       </c>
       <c r="R169" s="32" t="s">
@@ -25693,7 +25916,7 @@
         <v>536</v>
       </c>
       <c r="N170" s="39"/>
-      <c r="Q170" s="124"/>
+      <c r="Q170" s="179"/>
       <c r="R170" s="32" t="s">
         <v>25</v>
       </c>
@@ -25759,7 +25982,7 @@
       </c>
     </row>
     <row r="171" spans="10:60">
-      <c r="Q171" s="123" t="s">
+      <c r="Q171" s="178" t="s">
         <v>543</v>
       </c>
       <c r="R171" s="32" t="s">
@@ -25828,9 +26051,9 @@
     </row>
     <row r="172" spans="10:60">
       <c r="J172" s="60" t="s">
-        <v>612</v>
-      </c>
-      <c r="Q172" s="124"/>
+        <v>590</v>
+      </c>
+      <c r="Q172" s="179"/>
       <c r="R172" s="32" t="s">
         <v>538</v>
       </c>
@@ -25908,7 +26131,7 @@
       <c r="M173" s="36" t="s">
         <v>449</v>
       </c>
-      <c r="Q173" s="123" t="s">
+      <c r="Q173" s="178" t="s">
         <v>544</v>
       </c>
       <c r="R173" s="32" t="s">
@@ -25988,7 +26211,7 @@
       <c r="M174" s="37" t="s">
         <v>553</v>
       </c>
-      <c r="Q174" s="124"/>
+      <c r="Q174" s="179"/>
       <c r="R174" s="32" t="s">
         <v>539</v>
       </c>
@@ -26066,7 +26289,7 @@
       <c r="M175" s="37" t="s">
         <v>554</v>
       </c>
-      <c r="Q175" s="123" t="s">
+      <c r="Q175" s="178" t="s">
         <v>323</v>
       </c>
       <c r="R175" s="32" t="s">
@@ -26166,7 +26389,7 @@
       <c r="M176" s="37" t="s">
         <v>555</v>
       </c>
-      <c r="Q176" s="124"/>
+      <c r="Q176" s="179"/>
       <c r="R176" s="32" t="s">
         <v>540</v>
       </c>
@@ -26244,7 +26467,7 @@
       <c r="M177" s="37" t="s">
         <v>556</v>
       </c>
-      <c r="Q177" s="123" t="s">
+      <c r="Q177" s="178" t="s">
         <v>324</v>
       </c>
       <c r="R177" s="32" t="s">
@@ -26344,7 +26567,7 @@
       <c r="M178" s="37" t="s">
         <v>557</v>
       </c>
-      <c r="Q178" s="124"/>
+      <c r="Q178" s="179"/>
       <c r="R178" s="32" t="s">
         <v>541</v>
       </c>
@@ -26437,24 +26660,24 @@
       <c r="Q181" s="32" t="s">
         <v>447</v>
       </c>
-      <c r="R181" s="76" t="s">
+      <c r="R181" s="75" t="s">
         <v>546</v>
       </c>
-      <c r="S181" s="76" t="s">
+      <c r="S181" s="75" t="s">
         <v>547</v>
       </c>
-      <c r="T181" s="76" t="s">
+      <c r="T181" s="75" t="s">
         <v>548</v>
       </c>
-      <c r="U181" s="76" t="s">
+      <c r="U181" s="75" t="s">
         <v>549</v>
       </c>
-      <c r="V181" s="76" t="s">
+      <c r="V181" s="75" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="182" spans="10:38">
-      <c r="J182" s="77" t="s">
+      <c r="J182" s="76" t="s">
         <v>352</v>
       </c>
       <c r="K182" s="41" t="s">
@@ -26464,7 +26687,7 @@
         <v>564</v>
       </c>
       <c r="M182" s="37" t="s">
-        <v>636</v>
+        <v>613</v>
       </c>
       <c r="Q182" s="32" t="s">
         <v>524</v>
@@ -26491,7 +26714,7 @@
       </c>
     </row>
     <row r="183" spans="10:38">
-      <c r="J183" s="77" t="s">
+      <c r="J183" s="76" t="s">
         <v>353</v>
       </c>
       <c r="K183" s="63" t="s">
@@ -26501,7 +26724,7 @@
         <v>564</v>
       </c>
       <c r="M183" s="37" t="s">
-        <v>617</v>
+        <v>595</v>
       </c>
       <c r="Q183" s="32" t="s">
         <v>559</v>
@@ -26523,7 +26746,7 @@
       </c>
     </row>
     <row r="184" spans="10:38">
-      <c r="J184" s="77" t="s">
+      <c r="J184" s="76" t="s">
         <v>379</v>
       </c>
       <c r="K184" s="63" t="s">
@@ -26533,11 +26756,11 @@
         <v>564</v>
       </c>
       <c r="M184" s="37" t="s">
-        <v>618</v>
+        <v>596</v>
       </c>
     </row>
     <row r="185" spans="10:38">
-      <c r="J185" s="77" t="s">
+      <c r="J185" s="76" t="s">
         <v>380</v>
       </c>
       <c r="K185" s="63" t="s">
@@ -26547,11 +26770,11 @@
         <v>564</v>
       </c>
       <c r="M185" s="37" t="s">
-        <v>619</v>
+        <v>597</v>
       </c>
     </row>
     <row r="186" spans="10:38">
-      <c r="J186" s="77" t="s">
+      <c r="J186" s="76" t="s">
         <v>355</v>
       </c>
       <c r="K186" s="63" t="s">
@@ -26561,11 +26784,11 @@
         <v>564</v>
       </c>
       <c r="M186" s="37" t="s">
-        <v>620</v>
+        <v>598</v>
       </c>
     </row>
     <row r="187" spans="10:38">
-      <c r="J187" s="77" t="s">
+      <c r="J187" s="76" t="s">
         <v>356</v>
       </c>
       <c r="K187" s="63" t="s">
@@ -26575,11 +26798,11 @@
         <v>564</v>
       </c>
       <c r="M187" s="37" t="s">
-        <v>621</v>
+        <v>599</v>
       </c>
     </row>
     <row r="188" spans="10:38">
-      <c r="J188" s="77" t="s">
+      <c r="J188" s="76" t="s">
         <v>357</v>
       </c>
       <c r="K188" s="63" t="s">
@@ -26589,11 +26812,11 @@
         <v>564</v>
       </c>
       <c r="M188" s="37" t="s">
-        <v>622</v>
+        <v>600</v>
       </c>
     </row>
     <row r="189" spans="10:38">
-      <c r="J189" s="77" t="s">
+      <c r="J189" s="76" t="s">
         <v>358</v>
       </c>
       <c r="K189" s="64" t="s">
@@ -26603,11 +26826,11 @@
         <v>566</v>
       </c>
       <c r="M189" s="37" t="s">
-        <v>623</v>
+        <v>601</v>
       </c>
     </row>
     <row r="190" spans="10:38">
-      <c r="J190" s="77" t="s">
+      <c r="J190" s="76" t="s">
         <v>359</v>
       </c>
       <c r="K190" s="64" t="s">
@@ -26617,374 +26840,501 @@
         <v>565</v>
       </c>
       <c r="M190" s="37" t="s">
-        <v>624</v>
+        <v>602</v>
       </c>
     </row>
     <row r="192" spans="10:38">
-      <c r="J192" s="60" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="193" spans="10:14">
-      <c r="J193" s="77" t="s">
-        <v>569</v>
-      </c>
-      <c r="K193" s="125" t="s">
-        <v>574</v>
-      </c>
-      <c r="L193" s="125"/>
-      <c r="M193" s="125"/>
-      <c r="N193" s="78" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="194" spans="10:14">
-      <c r="J194" s="77" t="s">
-        <v>570</v>
-      </c>
-      <c r="K194" s="75" t="s">
-        <v>575</v>
-      </c>
-      <c r="L194" s="32"/>
-      <c r="M194" s="32"/>
-      <c r="N194" s="79">
-        <v>8.3599999999999994E-2</v>
-      </c>
-    </row>
-    <row r="195" spans="10:14">
-      <c r="J195" s="77" t="s">
-        <v>571</v>
-      </c>
-      <c r="K195" s="75" t="s">
-        <v>578</v>
-      </c>
-      <c r="L195" s="32"/>
-      <c r="M195" s="32"/>
-      <c r="N195" s="79">
-        <v>0.56920000000000004</v>
-      </c>
-    </row>
-    <row r="196" spans="10:14">
-      <c r="J196" s="112" t="s">
-        <v>572</v>
-      </c>
-      <c r="K196" s="113" t="s">
-        <v>576</v>
-      </c>
-      <c r="L196" s="114"/>
-      <c r="M196" s="114"/>
-      <c r="N196" s="115">
-        <v>0.66669999999999996</v>
-      </c>
-    </row>
-    <row r="197" spans="10:14">
-      <c r="J197" s="77" t="s">
-        <v>573</v>
-      </c>
-      <c r="K197" s="75" t="s">
-        <v>577</v>
-      </c>
-      <c r="L197" s="32"/>
-      <c r="M197" s="32"/>
-      <c r="N197" s="33" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="199" spans="10:14">
-      <c r="J199" s="89"/>
-      <c r="K199" s="90"/>
-      <c r="L199" s="90"/>
-      <c r="M199" s="91"/>
-    </row>
-    <row r="200" spans="10:14">
-      <c r="J200" s="92"/>
-      <c r="K200" s="93"/>
-      <c r="L200" s="93"/>
-      <c r="M200" s="94"/>
-    </row>
-    <row r="201" spans="10:14">
-      <c r="J201" s="92"/>
-      <c r="K201" s="93"/>
-      <c r="L201" s="93"/>
-      <c r="M201" s="94"/>
-    </row>
-    <row r="202" spans="10:14">
-      <c r="J202" s="92"/>
-      <c r="K202" s="93"/>
-      <c r="L202" s="93"/>
-      <c r="M202" s="94"/>
-    </row>
-    <row r="203" spans="10:14">
-      <c r="J203" s="92"/>
-      <c r="K203" s="93"/>
-      <c r="L203" s="93"/>
-      <c r="M203" s="94"/>
-    </row>
-    <row r="204" spans="10:14" ht="24">
-      <c r="J204" s="92"/>
-      <c r="K204" s="93"/>
-      <c r="L204" s="93"/>
-      <c r="M204" s="95" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="205" spans="10:14">
-      <c r="J205" s="92"/>
-      <c r="K205" s="93"/>
-      <c r="L205" s="93"/>
-      <c r="M205" s="96" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="206" spans="10:14">
-      <c r="J206" s="92"/>
-      <c r="K206" s="93"/>
-      <c r="L206" s="93"/>
-      <c r="M206" s="102" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="207" spans="10:14">
-      <c r="J207" s="92"/>
-      <c r="K207" s="93"/>
-      <c r="L207" s="93"/>
-      <c r="M207" s="102" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="208" spans="10:14">
-      <c r="J208" s="92"/>
-      <c r="K208" s="93"/>
-      <c r="L208" s="93"/>
-      <c r="M208" s="94"/>
-    </row>
-    <row r="209" spans="10:13">
-      <c r="J209" s="92"/>
-      <c r="K209" s="93"/>
-      <c r="L209" s="93"/>
-      <c r="M209" s="94"/>
-    </row>
-    <row r="210" spans="10:13">
-      <c r="J210" s="92"/>
-      <c r="K210" s="93"/>
-      <c r="L210" s="93"/>
-      <c r="M210" s="94"/>
-    </row>
-    <row r="211" spans="10:13">
-      <c r="J211" s="92"/>
-      <c r="K211" s="93"/>
-      <c r="L211" s="93"/>
-      <c r="M211" s="94"/>
-    </row>
-    <row r="212" spans="10:13">
-      <c r="J212" s="92"/>
-      <c r="K212" s="93"/>
-      <c r="L212" s="93"/>
-      <c r="M212" s="94"/>
-    </row>
-    <row r="213" spans="10:13">
-      <c r="J213" s="97"/>
-      <c r="K213" s="98"/>
-      <c r="L213" s="98"/>
-      <c r="M213" s="99"/>
-    </row>
-    <row r="215" spans="10:13">
-      <c r="J215" s="100"/>
-      <c r="K215" s="90"/>
-      <c r="L215" s="90"/>
-      <c r="M215" s="91"/>
-    </row>
-    <row r="216" spans="10:13">
-      <c r="J216" s="92"/>
-      <c r="K216" s="93"/>
-      <c r="L216" s="93"/>
-      <c r="M216" s="94"/>
-    </row>
-    <row r="217" spans="10:13">
-      <c r="J217" s="92"/>
-      <c r="K217" s="93"/>
-      <c r="L217" s="93"/>
-      <c r="M217" s="94"/>
-    </row>
-    <row r="218" spans="10:13">
-      <c r="J218" s="92"/>
-      <c r="K218" s="93"/>
-      <c r="L218" s="93"/>
-      <c r="M218" s="94"/>
-    </row>
-    <row r="219" spans="10:13">
-      <c r="J219" s="92"/>
-      <c r="K219" s="93"/>
-      <c r="L219" s="93"/>
-      <c r="M219" s="94"/>
-    </row>
-    <row r="220" spans="10:13" ht="24">
-      <c r="J220" s="92"/>
-      <c r="K220" s="93"/>
-      <c r="L220" s="93"/>
-      <c r="M220" s="101" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="221" spans="10:13">
-      <c r="J221" s="92"/>
-      <c r="K221" s="93"/>
-      <c r="L221" s="93"/>
-      <c r="M221" s="102" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="222" spans="10:13">
-      <c r="J222" s="92"/>
-      <c r="K222" s="93"/>
-      <c r="L222" s="93"/>
-      <c r="M222" s="102" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="223" spans="10:13">
-      <c r="J223" s="92"/>
-      <c r="K223" s="93"/>
-      <c r="L223" s="93"/>
-      <c r="M223" s="94"/>
-    </row>
-    <row r="224" spans="10:13">
-      <c r="J224" s="92"/>
-      <c r="K224" s="93"/>
-      <c r="L224" s="93"/>
-      <c r="M224" s="94"/>
-    </row>
-    <row r="225" spans="10:13">
-      <c r="J225" s="92"/>
-      <c r="K225" s="93"/>
-      <c r="L225" s="93"/>
-      <c r="M225" s="94"/>
-    </row>
-    <row r="226" spans="10:13">
-      <c r="J226" s="92"/>
-      <c r="K226" s="93"/>
-      <c r="L226" s="93"/>
-      <c r="M226" s="94"/>
-    </row>
-    <row r="227" spans="10:13">
-      <c r="J227" s="92"/>
-      <c r="K227" s="93"/>
-      <c r="L227" s="93"/>
-      <c r="M227" s="94"/>
-    </row>
-    <row r="228" spans="10:13">
-      <c r="J228" s="92"/>
-      <c r="K228" s="93"/>
-      <c r="L228" s="93"/>
-      <c r="M228" s="94"/>
-    </row>
-    <row r="229" spans="10:13">
-      <c r="J229" s="97"/>
-      <c r="K229" s="98"/>
-      <c r="L229" s="98"/>
-      <c r="M229" s="99"/>
-    </row>
-    <row r="231" spans="10:13">
-      <c r="J231" s="100"/>
-      <c r="K231" s="90"/>
-      <c r="L231" s="90"/>
-      <c r="M231" s="91"/>
-    </row>
-    <row r="232" spans="10:13">
-      <c r="J232" s="92"/>
-      <c r="K232" s="93"/>
-      <c r="L232" s="93"/>
-      <c r="M232" s="94"/>
-    </row>
-    <row r="233" spans="10:13">
-      <c r="J233" s="92"/>
-      <c r="K233" s="93"/>
-      <c r="L233" s="93"/>
-      <c r="M233" s="94"/>
-    </row>
-    <row r="234" spans="10:13">
-      <c r="J234" s="92"/>
-      <c r="K234" s="93"/>
-      <c r="L234" s="93"/>
-      <c r="M234" s="94"/>
-    </row>
-    <row r="235" spans="10:13">
-      <c r="J235" s="92"/>
-      <c r="K235" s="93"/>
-      <c r="L235" s="93"/>
-      <c r="M235" s="94"/>
-    </row>
-    <row r="236" spans="10:13" ht="24">
-      <c r="J236" s="92"/>
-      <c r="K236" s="93"/>
-      <c r="L236" s="93"/>
-      <c r="M236" s="95" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="237" spans="10:13">
-      <c r="J237" s="92"/>
-      <c r="K237" s="93"/>
-      <c r="L237" s="93"/>
-      <c r="M237" s="102" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="238" spans="10:13">
-      <c r="J238" s="92"/>
-      <c r="K238" s="93"/>
-      <c r="L238" s="93"/>
-      <c r="M238" s="102" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="239" spans="10:13">
-      <c r="J239" s="92"/>
-      <c r="K239" s="93"/>
-      <c r="L239" s="93"/>
-      <c r="M239" s="94"/>
-    </row>
-    <row r="240" spans="10:13">
-      <c r="J240" s="92"/>
-      <c r="K240" s="93"/>
-      <c r="L240" s="93"/>
-      <c r="M240" s="94"/>
-    </row>
-    <row r="241" spans="10:13">
-      <c r="J241" s="92"/>
-      <c r="K241" s="93"/>
-      <c r="L241" s="93"/>
-      <c r="M241" s="94"/>
-    </row>
-    <row r="242" spans="10:13">
-      <c r="J242" s="92"/>
-      <c r="K242" s="93"/>
-      <c r="L242" s="93"/>
-      <c r="M242" s="94"/>
-    </row>
-    <row r="243" spans="10:13">
-      <c r="J243" s="92"/>
-      <c r="K243" s="93"/>
-      <c r="L243" s="93"/>
-      <c r="M243" s="94"/>
-    </row>
-    <row r="244" spans="10:13">
-      <c r="J244" s="92"/>
-      <c r="K244" s="93"/>
-      <c r="L244" s="93"/>
-      <c r="M244" s="94"/>
-    </row>
-    <row r="245" spans="10:13">
-      <c r="J245" s="97"/>
-      <c r="K245" s="98"/>
-      <c r="L245" s="98"/>
-      <c r="M245" s="99"/>
+      <c r="J192" s="183" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="193" spans="10:16">
+      <c r="J193" s="183" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="194" spans="10:16">
+      <c r="J194" s="184" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="195" spans="10:16">
+      <c r="J195" s="184" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="196" spans="10:16">
+      <c r="J196" s="202" t="s">
+        <v>669</v>
+      </c>
+      <c r="K196" s="86"/>
+      <c r="L196" s="86"/>
+      <c r="M196" s="86"/>
+      <c r="N196" s="86"/>
+      <c r="O196" s="86"/>
+      <c r="P196" s="87"/>
+    </row>
+    <row r="197" spans="10:16">
+      <c r="J197" s="185"/>
+      <c r="K197" s="186"/>
+      <c r="L197" s="186"/>
+      <c r="M197" s="186"/>
+      <c r="N197" s="186"/>
+      <c r="O197" s="186"/>
+      <c r="P197" s="89"/>
+    </row>
+    <row r="198" spans="10:16">
+      <c r="J198" s="185"/>
+      <c r="K198" s="186"/>
+      <c r="L198" s="186"/>
+      <c r="M198" s="186"/>
+      <c r="N198" s="186"/>
+      <c r="O198" s="186"/>
+      <c r="P198" s="89"/>
+    </row>
+    <row r="199" spans="10:16">
+      <c r="J199" s="185"/>
+      <c r="K199" s="186"/>
+      <c r="L199" s="186"/>
+      <c r="M199" s="88"/>
+      <c r="N199" s="186"/>
+      <c r="O199" s="186"/>
+      <c r="P199" s="89"/>
+    </row>
+    <row r="200" spans="10:16">
+      <c r="J200" s="185"/>
+      <c r="K200" s="186"/>
+      <c r="L200" s="186"/>
+      <c r="M200" s="88"/>
+      <c r="N200" s="186"/>
+      <c r="O200" s="186"/>
+      <c r="P200" s="89"/>
+    </row>
+    <row r="201" spans="10:16">
+      <c r="J201" s="185"/>
+      <c r="K201" s="186"/>
+      <c r="L201" s="186"/>
+      <c r="M201" s="186" t="s">
+        <v>660</v>
+      </c>
+      <c r="N201" s="186"/>
+      <c r="O201" s="186"/>
+      <c r="P201" s="89"/>
+    </row>
+    <row r="202" spans="10:16">
+      <c r="J202" s="185"/>
+      <c r="K202" s="186"/>
+      <c r="L202" s="186"/>
+      <c r="M202" s="186" t="s">
+        <v>661</v>
+      </c>
+      <c r="N202" s="186"/>
+      <c r="O202" s="186"/>
+      <c r="P202" s="89"/>
+    </row>
+    <row r="203" spans="10:16">
+      <c r="J203" s="185"/>
+      <c r="K203" s="186"/>
+      <c r="L203" s="186"/>
+      <c r="M203" s="186" t="s">
+        <v>662</v>
+      </c>
+      <c r="N203" s="186"/>
+      <c r="O203" s="186"/>
+      <c r="P203" s="89"/>
+    </row>
+    <row r="204" spans="10:16">
+      <c r="J204" s="185"/>
+      <c r="K204" s="186"/>
+      <c r="L204" s="186"/>
+      <c r="M204" s="186"/>
+      <c r="N204" s="186"/>
+      <c r="O204" s="186"/>
+      <c r="P204" s="89"/>
+    </row>
+    <row r="205" spans="10:16">
+      <c r="J205" s="185"/>
+      <c r="K205" s="186"/>
+      <c r="L205" s="186"/>
+      <c r="M205" s="187" t="s">
+        <v>663</v>
+      </c>
+      <c r="N205" s="186"/>
+      <c r="O205" s="186"/>
+      <c r="P205" s="89"/>
+    </row>
+    <row r="206" spans="10:16" ht="33">
+      <c r="J206" s="185"/>
+      <c r="K206" s="186"/>
+      <c r="L206" s="186"/>
+      <c r="M206" s="189" t="s">
+        <v>664</v>
+      </c>
+      <c r="N206" s="186"/>
+      <c r="O206" s="186"/>
+      <c r="P206" s="89"/>
+    </row>
+    <row r="207" spans="10:16">
+      <c r="J207" s="185"/>
+      <c r="K207" s="186"/>
+      <c r="L207" s="186"/>
+      <c r="M207" s="186"/>
+      <c r="N207" s="186"/>
+      <c r="O207" s="186"/>
+      <c r="P207" s="89"/>
+    </row>
+    <row r="208" spans="10:16">
+      <c r="J208" s="185"/>
+      <c r="K208" s="186"/>
+      <c r="L208" s="186"/>
+      <c r="M208" s="186"/>
+      <c r="N208" s="186"/>
+      <c r="O208" s="186"/>
+      <c r="P208" s="89"/>
+    </row>
+    <row r="209" spans="10:16">
+      <c r="J209" s="185"/>
+      <c r="K209" s="186"/>
+      <c r="L209" s="186"/>
+      <c r="M209" s="186"/>
+      <c r="N209" s="186"/>
+      <c r="O209" s="186"/>
+      <c r="P209" s="89"/>
+    </row>
+    <row r="210" spans="10:16">
+      <c r="J210" s="185"/>
+      <c r="K210" s="186"/>
+      <c r="L210" s="186"/>
+      <c r="M210" s="186"/>
+      <c r="N210" s="186"/>
+      <c r="O210" s="186"/>
+      <c r="P210" s="89"/>
+    </row>
+    <row r="211" spans="10:16">
+      <c r="J211" s="188"/>
+      <c r="K211" s="90"/>
+      <c r="L211" s="90"/>
+      <c r="M211" s="90"/>
+      <c r="N211" s="90"/>
+      <c r="O211" s="90"/>
+      <c r="P211" s="91"/>
+    </row>
+    <row r="212" spans="10:16">
+      <c r="J212" s="60"/>
+    </row>
+    <row r="213" spans="10:16">
+      <c r="J213" s="202" t="s">
+        <v>673</v>
+      </c>
+      <c r="K213" s="192"/>
+      <c r="L213" s="192"/>
+      <c r="M213" s="192"/>
+      <c r="N213" s="192"/>
+      <c r="O213" s="192"/>
+      <c r="P213" s="193"/>
+    </row>
+    <row r="214" spans="10:16">
+      <c r="J214" s="198"/>
+      <c r="K214" s="199"/>
+      <c r="L214" s="199"/>
+      <c r="M214" s="199"/>
+      <c r="N214" s="199"/>
+      <c r="O214" s="199"/>
+      <c r="P214" s="195"/>
+    </row>
+    <row r="215" spans="10:16">
+      <c r="J215" s="198"/>
+      <c r="K215" s="199"/>
+      <c r="L215" s="199"/>
+      <c r="M215" s="199"/>
+      <c r="N215" s="199"/>
+      <c r="O215" s="199"/>
+      <c r="P215" s="195"/>
+    </row>
+    <row r="216" spans="10:16">
+      <c r="J216" s="198"/>
+      <c r="K216" s="199"/>
+      <c r="L216" s="199"/>
+      <c r="M216" s="194"/>
+      <c r="N216" s="199"/>
+      <c r="O216" s="199"/>
+      <c r="P216" s="195"/>
+    </row>
+    <row r="217" spans="10:16">
+      <c r="J217" s="198"/>
+      <c r="K217" s="199"/>
+      <c r="L217" s="199"/>
+      <c r="N217" s="199"/>
+      <c r="O217" s="199"/>
+      <c r="P217" s="195"/>
+    </row>
+    <row r="218" spans="10:16">
+      <c r="J218" s="198"/>
+      <c r="K218" s="199"/>
+      <c r="L218" s="199"/>
+      <c r="M218" s="194" t="s">
+        <v>665</v>
+      </c>
+      <c r="N218" s="199"/>
+      <c r="O218" s="199"/>
+      <c r="P218" s="195"/>
+    </row>
+    <row r="219" spans="10:16">
+      <c r="J219" s="198"/>
+      <c r="K219" s="199"/>
+      <c r="L219" s="199"/>
+      <c r="M219" s="194" t="s">
+        <v>667</v>
+      </c>
+      <c r="N219" s="199"/>
+      <c r="O219" s="199"/>
+      <c r="P219" s="195"/>
+    </row>
+    <row r="220" spans="10:16">
+      <c r="J220" s="198"/>
+      <c r="K220" s="199"/>
+      <c r="L220" s="199"/>
+      <c r="M220" s="199"/>
+      <c r="N220" s="199"/>
+      <c r="O220" s="199"/>
+      <c r="P220" s="195"/>
+    </row>
+    <row r="221" spans="10:16">
+      <c r="J221" s="198"/>
+      <c r="K221" s="199"/>
+      <c r="L221" s="199"/>
+      <c r="M221" s="199" t="s">
+        <v>666</v>
+      </c>
+      <c r="N221" s="199"/>
+      <c r="O221" s="199"/>
+      <c r="P221" s="195"/>
+    </row>
+    <row r="222" spans="10:16">
+      <c r="J222" s="198"/>
+      <c r="K222" s="199"/>
+      <c r="L222" s="199"/>
+      <c r="M222" s="199" t="s">
+        <v>668</v>
+      </c>
+      <c r="N222" s="199"/>
+      <c r="O222" s="199"/>
+      <c r="P222" s="195"/>
+    </row>
+    <row r="223" spans="10:16">
+      <c r="J223" s="198"/>
+      <c r="K223" s="199"/>
+      <c r="L223" s="199"/>
+      <c r="M223" s="201"/>
+      <c r="N223" s="199"/>
+      <c r="O223" s="199"/>
+      <c r="P223" s="195"/>
+    </row>
+    <row r="224" spans="10:16">
+      <c r="J224" s="198"/>
+      <c r="K224" s="199"/>
+      <c r="L224" s="199"/>
+      <c r="M224" s="199"/>
+      <c r="N224" s="199"/>
+      <c r="O224" s="199"/>
+      <c r="P224" s="195"/>
+    </row>
+    <row r="225" spans="10:16">
+      <c r="J225" s="198"/>
+      <c r="K225" s="199"/>
+      <c r="L225" s="199"/>
+      <c r="M225" s="199"/>
+      <c r="N225" s="199"/>
+      <c r="O225" s="199"/>
+      <c r="P225" s="195"/>
+    </row>
+    <row r="226" spans="10:16">
+      <c r="J226" s="198"/>
+      <c r="K226" s="199"/>
+      <c r="L226" s="199"/>
+      <c r="M226" s="199"/>
+      <c r="N226" s="199"/>
+      <c r="O226" s="199"/>
+      <c r="P226" s="195"/>
+    </row>
+    <row r="227" spans="10:16">
+      <c r="J227" s="198"/>
+      <c r="K227" s="199"/>
+      <c r="L227" s="199"/>
+      <c r="M227" s="199"/>
+      <c r="N227" s="199"/>
+      <c r="O227" s="199"/>
+      <c r="P227" s="195"/>
+    </row>
+    <row r="228" spans="10:16">
+      <c r="J228" s="200"/>
+      <c r="K228" s="196"/>
+      <c r="L228" s="196"/>
+      <c r="M228" s="196"/>
+      <c r="N228" s="196"/>
+      <c r="O228" s="196"/>
+      <c r="P228" s="197"/>
+    </row>
+    <row r="229" spans="10:16">
+      <c r="J229" s="60"/>
+    </row>
+    <row r="230" spans="10:16">
+      <c r="J230" s="202" t="s">
+        <v>670</v>
+      </c>
+      <c r="K230" s="192"/>
+      <c r="L230" s="192"/>
+      <c r="M230" s="192"/>
+      <c r="N230" s="192"/>
+      <c r="O230" s="192"/>
+      <c r="P230" s="193"/>
+    </row>
+    <row r="231" spans="10:16" s="190" customFormat="1">
+      <c r="J231" s="198"/>
+      <c r="K231" s="199"/>
+      <c r="L231" s="199"/>
+      <c r="M231" s="199"/>
+      <c r="N231" s="199"/>
+      <c r="O231" s="199"/>
+      <c r="P231" s="195"/>
+    </row>
+    <row r="232" spans="10:16" s="190" customFormat="1">
+      <c r="J232" s="198"/>
+      <c r="K232" s="199"/>
+      <c r="L232" s="199"/>
+      <c r="M232" s="199"/>
+      <c r="N232" s="199"/>
+      <c r="O232" s="199"/>
+      <c r="P232" s="195"/>
+    </row>
+    <row r="233" spans="10:16" s="190" customFormat="1">
+      <c r="J233" s="198"/>
+      <c r="K233" s="199"/>
+      <c r="L233" s="199"/>
+      <c r="M233" s="194"/>
+      <c r="N233" s="199"/>
+      <c r="O233" s="199"/>
+      <c r="P233" s="195"/>
+    </row>
+    <row r="234" spans="10:16" s="190" customFormat="1">
+      <c r="J234" s="198"/>
+      <c r="K234" s="199"/>
+      <c r="L234" s="199"/>
+      <c r="M234" s="194"/>
+      <c r="N234" s="199"/>
+      <c r="O234" s="199"/>
+      <c r="P234" s="195"/>
+    </row>
+    <row r="235" spans="10:16" s="190" customFormat="1">
+      <c r="J235" s="198"/>
+      <c r="K235" s="199"/>
+      <c r="L235" s="199"/>
+      <c r="M235" s="194"/>
+      <c r="N235" s="199"/>
+      <c r="O235" s="199"/>
+      <c r="P235" s="195"/>
+    </row>
+    <row r="236" spans="10:16" s="190" customFormat="1">
+      <c r="J236" s="198"/>
+      <c r="K236" s="199"/>
+      <c r="L236" s="199"/>
+      <c r="M236" s="194"/>
+      <c r="N236" s="199"/>
+      <c r="O236" s="199"/>
+      <c r="P236" s="195"/>
+    </row>
+    <row r="237" spans="10:16" s="190" customFormat="1">
+      <c r="J237" s="198"/>
+      <c r="K237" s="199"/>
+      <c r="L237" s="199"/>
+      <c r="M237" s="199" t="s">
+        <v>671</v>
+      </c>
+      <c r="N237" s="199"/>
+      <c r="O237" s="199"/>
+      <c r="P237" s="195"/>
+    </row>
+    <row r="238" spans="10:16" s="190" customFormat="1">
+      <c r="J238" s="198"/>
+      <c r="K238" s="199"/>
+      <c r="L238" s="199"/>
+      <c r="M238" s="199" t="s">
+        <v>672</v>
+      </c>
+      <c r="N238" s="199"/>
+      <c r="O238" s="199"/>
+      <c r="P238" s="195"/>
+    </row>
+    <row r="239" spans="10:16" s="190" customFormat="1">
+      <c r="J239" s="198"/>
+      <c r="K239" s="199"/>
+      <c r="L239" s="199"/>
+      <c r="M239" s="199"/>
+      <c r="N239" s="199"/>
+      <c r="O239" s="199"/>
+      <c r="P239" s="195"/>
+    </row>
+    <row r="240" spans="10:16" s="190" customFormat="1">
+      <c r="J240" s="198"/>
+      <c r="K240" s="199"/>
+      <c r="L240" s="199"/>
+      <c r="M240" s="201"/>
+      <c r="N240" s="199"/>
+      <c r="O240" s="199"/>
+      <c r="P240" s="195"/>
+    </row>
+    <row r="241" spans="10:16" s="190" customFormat="1">
+      <c r="J241" s="198"/>
+      <c r="K241" s="199"/>
+      <c r="L241" s="199"/>
+      <c r="M241" s="199"/>
+      <c r="N241" s="199"/>
+      <c r="O241" s="199"/>
+      <c r="P241" s="195"/>
+    </row>
+    <row r="242" spans="10:16" s="190" customFormat="1">
+      <c r="J242" s="198"/>
+      <c r="K242" s="199"/>
+      <c r="L242" s="199"/>
+      <c r="M242" s="199"/>
+      <c r="N242" s="199"/>
+      <c r="O242" s="199"/>
+      <c r="P242" s="195"/>
+    </row>
+    <row r="243" spans="10:16" s="190" customFormat="1">
+      <c r="J243" s="198"/>
+      <c r="K243" s="199"/>
+      <c r="L243" s="199"/>
+      <c r="M243" s="199"/>
+      <c r="N243" s="199"/>
+      <c r="O243" s="199"/>
+      <c r="P243" s="195"/>
+    </row>
+    <row r="244" spans="10:16" s="190" customFormat="1">
+      <c r="J244" s="198"/>
+      <c r="K244" s="199"/>
+      <c r="L244" s="199"/>
+      <c r="M244" s="199"/>
+      <c r="N244" s="199"/>
+      <c r="O244" s="199"/>
+      <c r="P244" s="195"/>
+    </row>
+    <row r="245" spans="10:16" s="190" customFormat="1">
+      <c r="J245" s="200"/>
+      <c r="K245" s="196"/>
+      <c r="L245" s="196"/>
+      <c r="M245" s="196"/>
+      <c r="N245" s="196"/>
+      <c r="O245" s="196"/>
+      <c r="P245" s="197"/>
+    </row>
+    <row r="246" spans="10:16" s="190" customFormat="1">
+      <c r="J246" s="191"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="Q175:Q176"/>
     <mergeCell ref="Q177:Q178"/>
-    <mergeCell ref="K193:M193"/>
     <mergeCell ref="Q163:Q164"/>
     <mergeCell ref="Q165:Q166"/>
     <mergeCell ref="Q167:Q168"/>
@@ -27016,141 +27366,141 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14">
-      <c r="B2" s="106" t="s">
-        <v>613</v>
+      <c r="B2" s="95" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="4" spans="2:14">
-      <c r="D4" s="86"/>
-      <c r="E4" s="87" t="s">
-        <v>588</v>
-      </c>
-      <c r="F4" s="86"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="81" t="s">
+      <c r="D4" s="83"/>
+      <c r="E4" s="84" t="s">
+        <v>575</v>
+      </c>
+      <c r="F4" s="83"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="78" t="s">
+        <v>570</v>
+      </c>
+      <c r="J4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="78" t="s">
+        <v>572</v>
+      </c>
+      <c r="N4" s="77"/>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="D5" s="85" t="s">
+        <v>574</v>
+      </c>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="H5" s="81" t="s">
+        <v>579</v>
+      </c>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="L5" s="96" t="s">
+        <v>592</v>
+      </c>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="D6" s="85" t="s">
+        <v>578</v>
+      </c>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="H6" s="81" t="s">
+        <v>580</v>
+      </c>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="77"/>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="H7" s="93" t="s">
+        <v>582</v>
+      </c>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="77"/>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="180" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="180"/>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="D12" s="83"/>
+      <c r="E12" s="84" t="s">
+        <v>576</v>
+      </c>
+      <c r="F12" s="83"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="80" t="s">
+        <v>571</v>
+      </c>
+      <c r="J12" s="79"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="78" t="s">
+        <v>572</v>
+      </c>
+      <c r="N12" s="77"/>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="D13" s="85" t="s">
+        <v>573</v>
+      </c>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="H13" s="82" t="s">
         <v>583</v>
       </c>
-      <c r="J4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="81" t="s">
-        <v>585</v>
-      </c>
-      <c r="N4" s="80"/>
-    </row>
-    <row r="5" spans="2:14">
-      <c r="D5" s="88" t="s">
-        <v>587</v>
-      </c>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="H5" s="84" t="s">
-        <v>592</v>
-      </c>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="L5" s="107" t="s">
-        <v>614</v>
-      </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-    </row>
-    <row r="6" spans="2:14">
-      <c r="D6" s="88" t="s">
-        <v>591</v>
-      </c>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="H6" s="84" t="s">
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="L13" s="96" t="s">
         <v>593</v>
       </c>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="80"/>
-      <c r="N6" s="80"/>
-    </row>
-    <row r="7" spans="2:14">
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="H7" s="104" t="s">
-        <v>595</v>
-      </c>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="80"/>
-      <c r="N7" s="80"/>
-    </row>
-    <row r="9" spans="2:14">
-      <c r="B9" s="126" t="s">
+      <c r="M13" s="77"/>
+      <c r="N13" s="77"/>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="D14" s="85" t="s">
+        <v>577</v>
+      </c>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="H14" s="82" t="s">
+        <v>581</v>
+      </c>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="77"/>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="H15" s="94" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="10" spans="2:14">
-      <c r="B10" s="126"/>
-    </row>
-    <row r="12" spans="2:14">
-      <c r="D12" s="86"/>
-      <c r="E12" s="87" t="s">
-        <v>589</v>
-      </c>
-      <c r="F12" s="86"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="83" t="s">
-        <v>584</v>
-      </c>
-      <c r="J12" s="82"/>
-      <c r="L12" s="80"/>
-      <c r="M12" s="81" t="s">
-        <v>585</v>
-      </c>
-      <c r="N12" s="80"/>
-    </row>
-    <row r="13" spans="2:14">
-      <c r="D13" s="88" t="s">
-        <v>586</v>
-      </c>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="H13" s="85" t="s">
-        <v>596</v>
-      </c>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="L13" s="107" t="s">
-        <v>615</v>
-      </c>
-      <c r="M13" s="80"/>
-      <c r="N13" s="80"/>
-    </row>
-    <row r="14" spans="2:14">
-      <c r="D14" s="88" t="s">
-        <v>590</v>
-      </c>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="H14" s="85" t="s">
-        <v>594</v>
-      </c>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="80"/>
-      <c r="N14" s="80"/>
-    </row>
-    <row r="15" spans="2:14">
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="H15" s="105" t="s">
-        <v>595</v>
-      </c>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="80"/>
-      <c r="N15" s="80"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="77"/>
+      <c r="N15" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -27169,7 +27519,7 @@
   </sheetPr>
   <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView topLeftCell="A173" workbookViewId="0">
+    <sheetView topLeftCell="A134" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -30008,8 +30358,8 @@
   </sheetPr>
   <dimension ref="A1:Z790"/>
   <sheetViews>
-    <sheetView topLeftCell="A751" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -30021,13 +30371,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="181" t="s">
         <v>419</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="181" t="s">
         <v>420</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="181" t="s">
         <v>421</v>
       </c>
       <c r="F1" s="67" t="s">
@@ -30095,13 +30445,13 @@
       </c>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="182" t="s">
         <v>399</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="182" t="s">
         <v>417</v>
       </c>
       <c r="F2" s="33" t="s">
@@ -30169,13 +30519,13 @@
       </c>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="182" t="s">
         <v>402</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="182" t="s">
         <v>411</v>
       </c>
       <c r="F3" s="33" t="s">
@@ -30243,13 +30593,13 @@
       </c>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="182" t="s">
         <v>405</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="182" t="s">
         <v>409</v>
       </c>
       <c r="F4" s="33" t="s">
@@ -30317,13 +30667,13 @@
       </c>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="182" t="s">
         <v>407</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="182" t="s">
         <v>400</v>
       </c>
       <c r="F5" s="33" t="s">
@@ -30391,13 +30741,13 @@
       </c>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="182" t="s">
         <v>409</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="182" t="s">
         <v>411</v>
       </c>
       <c r="F6" s="33" t="s">
@@ -30465,13 +30815,13 @@
       </c>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="182" t="s">
         <v>409</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="182" t="s">
         <v>399</v>
       </c>
       <c r="F7" s="33" t="s">
@@ -30539,13 +30889,13 @@
       </c>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="182" t="s">
         <v>409</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="182" t="s">
         <v>401</v>
       </c>
       <c r="F8" s="33" t="s">
@@ -30613,13 +30963,13 @@
       </c>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="182" t="s">
         <v>409</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="182" t="s">
         <v>416</v>
       </c>
       <c r="F9" s="33" t="s">
@@ -30687,13 +31037,13 @@
       </c>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="182" t="s">
         <v>410</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="182" t="s">
         <v>418</v>
       </c>
       <c r="F10" s="33" t="s">
@@ -30761,13 +31111,13 @@
       </c>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="182" t="s">
         <v>410</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="182" t="s">
         <v>400</v>
       </c>
       <c r="F11" s="33" t="s">
@@ -30835,13 +31185,13 @@
       </c>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="182" t="s">
         <v>410</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="182" t="s">
         <v>405</v>
       </c>
       <c r="F12" s="33" t="s">
@@ -30909,13 +31259,13 @@
       </c>
     </row>
     <row r="13" spans="1:26">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="182" t="s">
         <v>403</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="182" t="s">
         <v>406</v>
       </c>
       <c r="F13" s="33" t="s">
@@ -30983,13 +31333,13 @@
       </c>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="182" t="s">
         <v>403</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="182" t="s">
         <v>414</v>
       </c>
       <c r="F14" s="33" t="s">
@@ -31057,13 +31407,13 @@
       </c>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="182" t="s">
         <v>411</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="182" t="s">
         <v>399</v>
       </c>
       <c r="F15" s="33" t="s">
@@ -31131,13 +31481,13 @@
       </c>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="182" t="s">
         <v>411</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="182" t="s">
         <v>417</v>
       </c>
       <c r="F16" s="33" t="s">
@@ -31205,13 +31555,13 @@
       </c>
     </row>
     <row r="17" spans="1:26">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="182" t="s">
         <v>411</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="182" t="s">
         <v>414</v>
       </c>
       <c r="F17" s="33" t="s">
@@ -31279,13 +31629,13 @@
       </c>
     </row>
     <row r="18" spans="1:26">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="182" t="s">
         <v>411</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="182" t="s">
         <v>412</v>
       </c>
       <c r="F18" s="33" t="s">
@@ -31353,13 +31703,13 @@
       </c>
     </row>
     <row r="19" spans="1:26">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="182" t="s">
         <v>412</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="182" t="s">
         <v>402</v>
       </c>
       <c r="F19" s="33" t="s">
@@ -31427,13 +31777,13 @@
       </c>
     </row>
     <row r="20" spans="1:26">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="182" t="s">
         <v>412</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="182" t="s">
         <v>413</v>
       </c>
       <c r="F20" s="33" t="s">
@@ -31501,13 +31851,13 @@
       </c>
     </row>
     <row r="21" spans="1:26">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="182" t="s">
         <v>412</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="182" t="s">
         <v>403</v>
       </c>
       <c r="F21" s="33" t="s">
@@ -31575,244 +31925,244 @@
       </c>
     </row>
     <row r="22" spans="1:26">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="182" t="s">
         <v>404</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="182" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="23" spans="1:26">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="182" t="s">
         <v>404</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="182" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="24" spans="1:26">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="182" t="s">
         <v>414</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="182" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="25" spans="1:26">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="182" t="s">
         <v>414</v>
       </c>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="182" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="26" spans="1:26">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="182" t="s">
         <v>414</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="182" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="27" spans="1:26">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="182" t="s">
         <v>406</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="182" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="28" spans="1:26">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="182" t="s">
         <v>406</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="182" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="29" spans="1:26">
-      <c r="A29" s="33" t="s">
+      <c r="A29" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="182" t="s">
         <v>406</v>
       </c>
-      <c r="C29" s="33" t="s">
+      <c r="C29" s="182" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="30" spans="1:26">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="182" t="s">
         <v>406</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="182" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="31" spans="1:26">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="182" t="s">
         <v>413</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="182" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="32" spans="1:26">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="182" t="s">
         <v>413</v>
       </c>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="182" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="33" t="s">
+      <c r="A33" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="182" t="s">
         <v>416</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="182" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="33" t="s">
+      <c r="A34" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="33" t="s">
+      <c r="B34" s="182" t="s">
         <v>417</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="182" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="33" t="s">
+      <c r="A35" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="33" t="s">
+      <c r="B35" s="182" t="s">
         <v>417</v>
       </c>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="182" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="33" t="s">
+      <c r="A36" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="182" t="s">
         <v>417</v>
       </c>
-      <c r="C36" s="33" t="s">
+      <c r="C36" s="182" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="33" t="s">
+      <c r="A37" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="182" t="s">
         <v>417</v>
       </c>
-      <c r="C37" s="33" t="s">
+      <c r="C37" s="182" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="33" t="s">
+      <c r="B38" s="182" t="s">
         <v>400</v>
       </c>
-      <c r="C38" s="33" t="s">
+      <c r="C38" s="182" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="33" t="s">
+      <c r="A39" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="33" t="s">
+      <c r="B39" s="182" t="s">
         <v>415</v>
       </c>
-      <c r="C39" s="33" t="s">
+      <c r="C39" s="182" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="33" t="s">
+      <c r="A40" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="182" t="s">
         <v>401</v>
       </c>
-      <c r="C40" s="33" t="s">
+      <c r="C40" s="182" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="33" t="s">
+      <c r="A41" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="33" t="s">
+      <c r="B41" s="182" t="s">
         <v>418</v>
       </c>
-      <c r="C41" s="33" t="s">
+      <c r="C41" s="182" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="33" t="s">
+      <c r="A42" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="33" t="s">
+      <c r="B42" s="182" t="s">
         <v>418</v>
       </c>
-      <c r="C42" s="33" t="s">
+      <c r="C42" s="182" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="33" t="s">
+      <c r="A43" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="33" t="s">
+      <c r="B43" s="182" t="s">
         <v>408</v>
       </c>
-      <c r="C43" s="33" t="s">
+      <c r="C43" s="182" t="s">
         <v>407</v>
       </c>
     </row>

--- a/250410_또래지명_검사_회의_후_논의_및_확인사항.xlsx
+++ b/250410_또래지명_검사_회의_후_논의_및_확인사항.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\peer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qndba\peer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1B0132-42BA-49A6-9359-13EF07A5F6F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01F577D-ABFA-4284-A1F5-7625A984CF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{B05B94D7-EB60-466C-9832-7E3F9B4E9A61}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{B05B94D7-EB60-466C-9832-7E3F9B4E9A61}"/>
   </bookViews>
   <sheets>
     <sheet name="학생문항" sheetId="1" r:id="rId1"/>
@@ -5556,10 +5556,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3. 두 척도 모두 Z점수 기반 수준화로 범위 통일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이에 따라 두 척도를 비교할 때는, 해석적·수학적 기준의 일관성을 확보하기 위해</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5583,6 +5579,10 @@
   </si>
   <si>
     <t>0-.5분포</t>
+  </si>
+  <si>
+    <t>2. 두 척도 모두 Z점수 기반 수준화로 범위 통일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6830,7 +6830,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="203">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7325,6 +7325,27 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7363,72 +7384,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="17" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="19" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -20381,14 +20336,14 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="85.625" customWidth="1"/>
-    <col min="6" max="6" width="64.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" customWidth="1"/>
+    <col min="5" max="5" width="85.58203125" customWidth="1"/>
+    <col min="6" max="6" width="64.08203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -22469,14 +22424,14 @@
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.08203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="111.5" style="109" customWidth="1"/>
-    <col min="6" max="6" width="33.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.83203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -23214,9 +23169,9 @@
       <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="20" width="11.125" style="3" customWidth="1"/>
+    <col min="2" max="20" width="11.08203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -23253,17 +23208,17 @@
       <c r="A8" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="B8" s="171" t="s">
+      <c r="B8" s="178" t="s">
         <v>306</v>
       </c>
-      <c r="C8" s="171"/>
-      <c r="D8" s="171"/>
-      <c r="E8" s="171"/>
-      <c r="F8" s="171"/>
-      <c r="G8" s="171"/>
-      <c r="H8" s="171"/>
-    </row>
-    <row r="9" spans="1:8" ht="33">
+      <c r="C8" s="178"/>
+      <c r="D8" s="178"/>
+      <c r="E8" s="178"/>
+      <c r="F8" s="178"/>
+      <c r="G8" s="178"/>
+      <c r="H8" s="178"/>
+    </row>
+    <row r="9" spans="1:8" ht="34">
       <c r="A9" s="11" t="s">
         <v>313</v>
       </c>
@@ -23345,17 +23300,17 @@
       <c r="A13" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="B13" s="168" t="s">
+      <c r="B13" s="175" t="s">
         <v>315</v>
       </c>
-      <c r="C13" s="169"/>
-      <c r="D13" s="169"/>
-      <c r="E13" s="169"/>
-      <c r="F13" s="170"/>
+      <c r="C13" s="176"/>
+      <c r="D13" s="176"/>
+      <c r="E13" s="176"/>
+      <c r="F13" s="177"/>
       <c r="G13"/>
       <c r="H13"/>
     </row>
-    <row r="14" spans="1:8" ht="33">
+    <row r="14" spans="1:8" ht="34">
       <c r="A14" s="11" t="s">
         <v>313</v>
       </c>
@@ -23421,15 +23376,15 @@
       <c r="A18" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="B18" s="168" t="s">
+      <c r="B18" s="175" t="s">
         <v>322</v>
       </c>
-      <c r="C18" s="169"/>
-      <c r="D18" s="169"/>
-      <c r="E18" s="169"/>
-      <c r="F18" s="170"/>
-    </row>
-    <row r="19" spans="1:20" ht="33">
+      <c r="C18" s="176"/>
+      <c r="D18" s="176"/>
+      <c r="E18" s="176"/>
+      <c r="F18" s="177"/>
+    </row>
+    <row r="19" spans="1:20" ht="34">
       <c r="A19" s="11" t="s">
         <v>313</v>
       </c>
@@ -23493,18 +23448,18 @@
       <c r="A23" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="B23" s="168" t="s">
+      <c r="B23" s="175" t="s">
         <v>333</v>
       </c>
-      <c r="C23" s="169"/>
-      <c r="D23" s="169"/>
-      <c r="E23" s="169"/>
-      <c r="F23" s="169"/>
-      <c r="G23" s="169"/>
-      <c r="H23" s="169"/>
-      <c r="I23" s="170"/>
-    </row>
-    <row r="24" spans="1:20" ht="33">
+      <c r="C23" s="176"/>
+      <c r="D23" s="176"/>
+      <c r="E23" s="176"/>
+      <c r="F23" s="176"/>
+      <c r="G23" s="176"/>
+      <c r="H23" s="176"/>
+      <c r="I23" s="177"/>
+    </row>
+    <row r="24" spans="1:20" ht="34">
       <c r="A24" s="11" t="s">
         <v>313</v>
       </c>
@@ -23591,19 +23546,19 @@
         <v>340</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="17.25" thickBot="1"/>
-    <row r="28" spans="1:20" ht="17.25" thickBot="1">
+    <row r="27" spans="1:20" ht="17.5" thickBot="1"/>
+    <row r="28" spans="1:20" ht="17.5" thickBot="1">
       <c r="A28" s="25" t="s">
         <v>314</v>
       </c>
-      <c r="B28" s="172" t="s">
+      <c r="B28" s="179" t="s">
         <v>348</v>
       </c>
-      <c r="C28" s="173"/>
-      <c r="D28" s="173"/>
-      <c r="E28" s="173"/>
-      <c r="F28" s="174"/>
-      <c r="G28" s="175"/>
+      <c r="C28" s="180"/>
+      <c r="D28" s="180"/>
+      <c r="E28" s="180"/>
+      <c r="F28" s="181"/>
+      <c r="G28" s="182"/>
       <c r="L28"/>
       <c r="M28"/>
       <c r="N28"/>
@@ -23614,7 +23569,7 @@
       <c r="S28"/>
       <c r="T28"/>
     </row>
-    <row r="29" spans="1:20" ht="33.75" thickTop="1">
+    <row r="29" spans="1:20" ht="34.5" thickTop="1">
       <c r="A29" s="26" t="s">
         <v>313</v>
       </c>
@@ -23680,7 +23635,7 @@
       <c r="S30"/>
       <c r="T30"/>
     </row>
-    <row r="31" spans="1:20" ht="17.25" thickBot="1">
+    <row r="31" spans="1:20" ht="17.5" thickBot="1">
       <c r="A31" s="27" t="s">
         <v>311</v>
       </c>
@@ -23721,21 +23676,21 @@
       <c r="F32" s="144"/>
       <c r="G32" s="144"/>
     </row>
-    <row r="33" spans="1:17" ht="17.25" thickBot="1">
+    <row r="33" spans="1:17" ht="17.5" thickBot="1">
       <c r="A33" s="141" t="s">
         <v>314</v>
       </c>
-      <c r="B33" s="176" t="s">
+      <c r="B33" s="183" t="s">
         <v>349</v>
       </c>
-      <c r="C33" s="177"/>
-      <c r="D33" s="177"/>
-      <c r="E33" s="177"/>
-      <c r="F33" s="177"/>
-      <c r="G33" s="177"/>
+      <c r="C33" s="184"/>
+      <c r="D33" s="184"/>
+      <c r="E33" s="184"/>
+      <c r="F33" s="184"/>
+      <c r="G33" s="184"/>
       <c r="H33" s="145"/>
     </row>
-    <row r="34" spans="1:17" ht="33.75" thickTop="1">
+    <row r="34" spans="1:17" ht="48.5" thickTop="1">
       <c r="A34" s="11" t="s">
         <v>313</v>
       </c>
@@ -23782,7 +23737,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="17.25" thickBot="1">
+    <row r="36" spans="1:17" ht="17.5" thickBot="1">
       <c r="A36" s="135" t="s">
         <v>311</v>
       </c>
@@ -23805,7 +23760,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="17.25" thickTop="1">
+    <row r="37" spans="1:17" ht="17.5" thickTop="1">
       <c r="A37" s="148"/>
       <c r="C37" s="123"/>
       <c r="F37" s="147"/>
@@ -23814,26 +23769,26 @@
       <c r="A38" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="B38" s="171" t="s">
+      <c r="B38" s="178" t="s">
         <v>390</v>
       </c>
-      <c r="C38" s="171"/>
-      <c r="D38" s="171"/>
-      <c r="E38" s="171"/>
-      <c r="F38" s="171"/>
-      <c r="G38" s="171"/>
-      <c r="H38" s="171"/>
-      <c r="I38" s="171"/>
-      <c r="J38" s="171"/>
-      <c r="K38" s="171"/>
-      <c r="L38" s="171"/>
-      <c r="M38" s="171"/>
-      <c r="N38" s="171"/>
-      <c r="O38" s="171"/>
-      <c r="P38" s="171"/>
-      <c r="Q38" s="171"/>
-    </row>
-    <row r="39" spans="1:17" ht="33">
+      <c r="C38" s="178"/>
+      <c r="D38" s="178"/>
+      <c r="E38" s="178"/>
+      <c r="F38" s="178"/>
+      <c r="G38" s="178"/>
+      <c r="H38" s="178"/>
+      <c r="I38" s="178"/>
+      <c r="J38" s="178"/>
+      <c r="K38" s="178"/>
+      <c r="L38" s="178"/>
+      <c r="M38" s="178"/>
+      <c r="N38" s="178"/>
+      <c r="O38" s="178"/>
+      <c r="P38" s="178"/>
+      <c r="Q38" s="178"/>
+    </row>
+    <row r="39" spans="1:17" ht="34">
       <c r="A39" s="11" t="s">
         <v>313</v>
       </c>
@@ -24001,15 +23956,15 @@
       <c r="A43" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="B43" s="171" t="s">
+      <c r="B43" s="178" t="s">
         <v>389</v>
       </c>
-      <c r="C43" s="171"/>
-      <c r="D43" s="171"/>
-      <c r="E43" s="171"/>
-      <c r="F43" s="171"/>
-    </row>
-    <row r="44" spans="1:17" ht="33">
+      <c r="C43" s="178"/>
+      <c r="D43" s="178"/>
+      <c r="E43" s="178"/>
+      <c r="F43" s="178"/>
+    </row>
+    <row r="44" spans="1:17" ht="34">
       <c r="A44" s="11" t="s">
         <v>313</v>
       </c>
@@ -24073,19 +24028,19 @@
       <c r="A48" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="B48" s="168" t="s">
+      <c r="B48" s="175" t="s">
         <v>381</v>
       </c>
-      <c r="C48" s="169"/>
-      <c r="D48" s="169"/>
-      <c r="E48" s="169"/>
-      <c r="F48" s="169"/>
-      <c r="G48" s="169"/>
-      <c r="H48" s="169"/>
-      <c r="I48" s="169"/>
-      <c r="J48" s="170"/>
-    </row>
-    <row r="49" spans="1:10" ht="33">
+      <c r="C48" s="176"/>
+      <c r="D48" s="176"/>
+      <c r="E48" s="176"/>
+      <c r="F48" s="176"/>
+      <c r="G48" s="176"/>
+      <c r="H48" s="176"/>
+      <c r="I48" s="176"/>
+      <c r="J48" s="177"/>
+    </row>
+    <row r="49" spans="1:10" ht="34">
       <c r="A49" s="11" t="s">
         <v>313</v>
       </c>
@@ -24117,7 +24072,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="17.25" thickBot="1">
+    <row r="50" spans="1:10" ht="17.5" thickBot="1">
       <c r="A50" s="11" t="s">
         <v>312</v>
       </c>
@@ -24149,7 +24104,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="17.25" thickBot="1">
+    <row r="51" spans="1:10" ht="17.5" thickBot="1">
       <c r="A51" s="11" t="s">
         <v>382</v>
       </c>
@@ -24238,20 +24193,20 @@
   </sheetPr>
   <dimension ref="A1:BH246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L148" sqref="L148"/>
+    <sheetView tabSelected="1" topLeftCell="A193" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D226" sqref="D226"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="16.125" customWidth="1"/>
-    <col min="11" max="11" width="17.125" customWidth="1"/>
-    <col min="12" max="12" width="39.375" customWidth="1"/>
-    <col min="13" max="13" width="54.625" customWidth="1"/>
-    <col min="14" max="14" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="22" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="23" max="33" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.08203125" customWidth="1"/>
+    <col min="11" max="11" width="17.08203125" customWidth="1"/>
+    <col min="12" max="12" width="39.33203125" customWidth="1"/>
+    <col min="13" max="13" width="54.58203125" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="22" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="33" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -24382,7 +24337,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="20" spans="9:14" ht="17.25" thickBot="1">
+    <row r="20" spans="9:14" ht="17.5" thickBot="1">
       <c r="J20" s="46" t="s">
         <v>5</v>
       </c>
@@ -24399,7 +24354,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="9:14" ht="17.25" thickBot="1">
+    <row r="21" spans="9:14" ht="17.5" thickBot="1">
       <c r="I21" s="101" t="s">
         <v>610</v>
       </c>
@@ -25116,7 +25071,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="138" spans="1:14" ht="17.25" thickBot="1">
+    <row r="138" spans="1:14" ht="17.5" thickBot="1">
       <c r="J138" s="97" t="s">
         <v>342</v>
       </c>
@@ -25150,7 +25105,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="140" spans="1:14" ht="17.25" thickBot="1">
+    <row r="140" spans="1:14" ht="17.5" thickBot="1">
       <c r="J140" s="157" t="s">
         <v>497</v>
       </c>
@@ -25176,13 +25131,13 @@
         <v>560</v>
       </c>
       <c r="M141" s="153" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="N141" s="160" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="142" spans="1:14" ht="17.25" thickBot="1">
+    <row r="142" spans="1:14" ht="17.5" thickBot="1">
       <c r="J142" s="161" t="s">
         <v>499</v>
       </c>
@@ -25207,16 +25162,16 @@
         <v>7</v>
       </c>
       <c r="L143" s="166" t="s">
+        <v>674</v>
+      </c>
+      <c r="M143" s="166" t="s">
         <v>675</v>
       </c>
-      <c r="M143" s="166" t="s">
+      <c r="N143" s="167" t="s">
         <v>676</v>
       </c>
-      <c r="N143" s="167" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14" ht="17.25" thickTop="1"/>
+    </row>
+    <row r="144" spans="1:14" ht="17.5" thickTop="1"/>
     <row r="158" spans="1:10">
       <c r="A158" s="29" t="s">
         <v>506</v>
@@ -25335,7 +25290,7 @@
         <v>525</v>
       </c>
       <c r="N163" s="39"/>
-      <c r="Q163" s="179" t="s">
+      <c r="Q163" s="186" t="s">
         <v>352</v>
       </c>
       <c r="R163" s="32" t="s">
@@ -25436,7 +25391,7 @@
         <v>528</v>
       </c>
       <c r="N164" s="39"/>
-      <c r="Q164" s="179"/>
+      <c r="Q164" s="186"/>
       <c r="R164" s="32" t="s">
         <v>524</v>
       </c>
@@ -25515,7 +25470,7 @@
         <v>529</v>
       </c>
       <c r="N165" s="39"/>
-      <c r="Q165" s="178" t="s">
+      <c r="Q165" s="185" t="s">
         <v>542</v>
       </c>
       <c r="R165" s="32" t="s">
@@ -25596,7 +25551,7 @@
         <v>530</v>
       </c>
       <c r="N166" s="39"/>
-      <c r="Q166" s="179"/>
+      <c r="Q166" s="186"/>
       <c r="R166" s="32" t="s">
         <v>10</v>
       </c>
@@ -25675,7 +25630,7 @@
         <v>531</v>
       </c>
       <c r="N167" s="39"/>
-      <c r="Q167" s="179" t="s">
+      <c r="Q167" s="186" t="s">
         <v>354</v>
       </c>
       <c r="R167" s="32" t="s">
@@ -25756,7 +25711,7 @@
         <v>532</v>
       </c>
       <c r="N168" s="39"/>
-      <c r="Q168" s="179"/>
+      <c r="Q168" s="186"/>
       <c r="R168" s="32" t="s">
         <v>537</v>
       </c>
@@ -25835,7 +25790,7 @@
         <v>535</v>
       </c>
       <c r="N169" s="39"/>
-      <c r="Q169" s="179" t="s">
+      <c r="Q169" s="186" t="s">
         <v>355</v>
       </c>
       <c r="R169" s="32" t="s">
@@ -25916,7 +25871,7 @@
         <v>536</v>
       </c>
       <c r="N170" s="39"/>
-      <c r="Q170" s="179"/>
+      <c r="Q170" s="186"/>
       <c r="R170" s="32" t="s">
         <v>25</v>
       </c>
@@ -25982,7 +25937,7 @@
       </c>
     </row>
     <row r="171" spans="10:60">
-      <c r="Q171" s="178" t="s">
+      <c r="Q171" s="185" t="s">
         <v>543</v>
       </c>
       <c r="R171" s="32" t="s">
@@ -26053,7 +26008,7 @@
       <c r="J172" s="60" t="s">
         <v>590</v>
       </c>
-      <c r="Q172" s="179"/>
+      <c r="Q172" s="186"/>
       <c r="R172" s="32" t="s">
         <v>538</v>
       </c>
@@ -26131,7 +26086,7 @@
       <c r="M173" s="36" t="s">
         <v>449</v>
       </c>
-      <c r="Q173" s="178" t="s">
+      <c r="Q173" s="185" t="s">
         <v>544</v>
       </c>
       <c r="R173" s="32" t="s">
@@ -26211,7 +26166,7 @@
       <c r="M174" s="37" t="s">
         <v>553</v>
       </c>
-      <c r="Q174" s="179"/>
+      <c r="Q174" s="186"/>
       <c r="R174" s="32" t="s">
         <v>539</v>
       </c>
@@ -26289,7 +26244,7 @@
       <c r="M175" s="37" t="s">
         <v>554</v>
       </c>
-      <c r="Q175" s="178" t="s">
+      <c r="Q175" s="185" t="s">
         <v>323</v>
       </c>
       <c r="R175" s="32" t="s">
@@ -26389,7 +26344,7 @@
       <c r="M176" s="37" t="s">
         <v>555</v>
       </c>
-      <c r="Q176" s="179"/>
+      <c r="Q176" s="186"/>
       <c r="R176" s="32" t="s">
         <v>540</v>
       </c>
@@ -26467,7 +26422,7 @@
       <c r="M177" s="37" t="s">
         <v>556</v>
       </c>
-      <c r="Q177" s="178" t="s">
+      <c r="Q177" s="185" t="s">
         <v>324</v>
       </c>
       <c r="R177" s="32" t="s">
@@ -26567,7 +26522,7 @@
       <c r="M178" s="37" t="s">
         <v>557</v>
       </c>
-      <c r="Q178" s="179"/>
+      <c r="Q178" s="186"/>
       <c r="R178" s="32" t="s">
         <v>541</v>
       </c>
@@ -26844,27 +26799,27 @@
       </c>
     </row>
     <row r="192" spans="10:38">
-      <c r="J192" s="183" t="s">
+      <c r="J192" s="168" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="193" spans="10:16">
-      <c r="J193" s="183" t="s">
+      <c r="J193" s="168" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="194" spans="10:16">
-      <c r="J194" s="184" t="s">
+      <c r="J194" s="169" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="195" spans="10:16">
-      <c r="J195" s="184" t="s">
+      <c r="J195" s="169" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="196" spans="10:16">
-      <c r="J196" s="202" t="s">
+      <c r="J196" s="174" t="s">
         <v>669</v>
       </c>
       <c r="K196" s="86"/>
@@ -26875,143 +26830,143 @@
       <c r="P196" s="87"/>
     </row>
     <row r="197" spans="10:16">
-      <c r="J197" s="185"/>
-      <c r="K197" s="186"/>
-      <c r="L197" s="186"/>
-      <c r="M197" s="186"/>
-      <c r="N197" s="186"/>
-      <c r="O197" s="186"/>
+      <c r="J197" s="170"/>
+      <c r="K197" s="88"/>
+      <c r="L197" s="88"/>
+      <c r="M197" s="88"/>
+      <c r="N197" s="88"/>
+      <c r="O197" s="88"/>
       <c r="P197" s="89"/>
     </row>
     <row r="198" spans="10:16">
-      <c r="J198" s="185"/>
-      <c r="K198" s="186"/>
-      <c r="L198" s="186"/>
-      <c r="M198" s="186"/>
-      <c r="N198" s="186"/>
-      <c r="O198" s="186"/>
+      <c r="J198" s="170"/>
+      <c r="K198" s="88"/>
+      <c r="L198" s="88"/>
+      <c r="M198" s="88"/>
+      <c r="N198" s="88"/>
+      <c r="O198" s="88"/>
       <c r="P198" s="89"/>
     </row>
     <row r="199" spans="10:16">
-      <c r="J199" s="185"/>
-      <c r="K199" s="186"/>
-      <c r="L199" s="186"/>
+      <c r="J199" s="170"/>
+      <c r="K199" s="88"/>
+      <c r="L199" s="88"/>
       <c r="M199" s="88"/>
-      <c r="N199" s="186"/>
-      <c r="O199" s="186"/>
+      <c r="N199" s="88"/>
+      <c r="O199" s="88"/>
       <c r="P199" s="89"/>
     </row>
     <row r="200" spans="10:16">
-      <c r="J200" s="185"/>
-      <c r="K200" s="186"/>
-      <c r="L200" s="186"/>
+      <c r="J200" s="170"/>
+      <c r="K200" s="88"/>
+      <c r="L200" s="88"/>
       <c r="M200" s="88"/>
-      <c r="N200" s="186"/>
-      <c r="O200" s="186"/>
+      <c r="N200" s="88"/>
+      <c r="O200" s="88"/>
       <c r="P200" s="89"/>
     </row>
     <row r="201" spans="10:16">
-      <c r="J201" s="185"/>
-      <c r="K201" s="186"/>
-      <c r="L201" s="186"/>
-      <c r="M201" s="186" t="s">
+      <c r="J201" s="170"/>
+      <c r="K201" s="88"/>
+      <c r="L201" s="88"/>
+      <c r="M201" s="88" t="s">
         <v>660</v>
       </c>
-      <c r="N201" s="186"/>
-      <c r="O201" s="186"/>
+      <c r="N201" s="88"/>
+      <c r="O201" s="88"/>
       <c r="P201" s="89"/>
     </row>
     <row r="202" spans="10:16">
-      <c r="J202" s="185"/>
-      <c r="K202" s="186"/>
-      <c r="L202" s="186"/>
-      <c r="M202" s="186" t="s">
+      <c r="J202" s="170"/>
+      <c r="K202" s="88"/>
+      <c r="L202" s="88"/>
+      <c r="M202" s="88" t="s">
         <v>661</v>
       </c>
-      <c r="N202" s="186"/>
-      <c r="O202" s="186"/>
+      <c r="N202" s="88"/>
+      <c r="O202" s="88"/>
       <c r="P202" s="89"/>
     </row>
     <row r="203" spans="10:16">
-      <c r="J203" s="185"/>
-      <c r="K203" s="186"/>
-      <c r="L203" s="186"/>
-      <c r="M203" s="186" t="s">
+      <c r="J203" s="170"/>
+      <c r="K203" s="88"/>
+      <c r="L203" s="88"/>
+      <c r="M203" s="88" t="s">
         <v>662</v>
       </c>
-      <c r="N203" s="186"/>
-      <c r="O203" s="186"/>
+      <c r="N203" s="88"/>
+      <c r="O203" s="88"/>
       <c r="P203" s="89"/>
     </row>
     <row r="204" spans="10:16">
-      <c r="J204" s="185"/>
-      <c r="K204" s="186"/>
-      <c r="L204" s="186"/>
-      <c r="M204" s="186"/>
-      <c r="N204" s="186"/>
-      <c r="O204" s="186"/>
+      <c r="J204" s="170"/>
+      <c r="K204" s="88"/>
+      <c r="L204" s="88"/>
+      <c r="M204" s="88"/>
+      <c r="N204" s="88"/>
+      <c r="O204" s="88"/>
       <c r="P204" s="89"/>
     </row>
     <row r="205" spans="10:16">
-      <c r="J205" s="185"/>
-      <c r="K205" s="186"/>
-      <c r="L205" s="186"/>
-      <c r="M205" s="187" t="s">
+      <c r="J205" s="170"/>
+      <c r="K205" s="88"/>
+      <c r="L205" s="88"/>
+      <c r="M205" s="171" t="s">
         <v>663</v>
       </c>
-      <c r="N205" s="186"/>
-      <c r="O205" s="186"/>
+      <c r="N205" s="88"/>
+      <c r="O205" s="88"/>
       <c r="P205" s="89"/>
     </row>
-    <row r="206" spans="10:16" ht="33">
-      <c r="J206" s="185"/>
-      <c r="K206" s="186"/>
-      <c r="L206" s="186"/>
-      <c r="M206" s="189" t="s">
+    <row r="206" spans="10:16" ht="34">
+      <c r="J206" s="170"/>
+      <c r="K206" s="88"/>
+      <c r="L206" s="88"/>
+      <c r="M206" s="173" t="s">
         <v>664</v>
       </c>
-      <c r="N206" s="186"/>
-      <c r="O206" s="186"/>
+      <c r="N206" s="88"/>
+      <c r="O206" s="88"/>
       <c r="P206" s="89"/>
     </row>
     <row r="207" spans="10:16">
-      <c r="J207" s="185"/>
-      <c r="K207" s="186"/>
-      <c r="L207" s="186"/>
-      <c r="M207" s="186"/>
-      <c r="N207" s="186"/>
-      <c r="O207" s="186"/>
+      <c r="J207" s="170"/>
+      <c r="K207" s="88"/>
+      <c r="L207" s="88"/>
+      <c r="M207" s="88"/>
+      <c r="N207" s="88"/>
+      <c r="O207" s="88"/>
       <c r="P207" s="89"/>
     </row>
     <row r="208" spans="10:16">
-      <c r="J208" s="185"/>
-      <c r="K208" s="186"/>
-      <c r="L208" s="186"/>
-      <c r="M208" s="186"/>
-      <c r="N208" s="186"/>
-      <c r="O208" s="186"/>
+      <c r="J208" s="170"/>
+      <c r="K208" s="88"/>
+      <c r="L208" s="88"/>
+      <c r="M208" s="88"/>
+      <c r="N208" s="88"/>
+      <c r="O208" s="88"/>
       <c r="P208" s="89"/>
     </row>
     <row r="209" spans="10:16">
-      <c r="J209" s="185"/>
-      <c r="K209" s="186"/>
-      <c r="L209" s="186"/>
-      <c r="M209" s="186"/>
-      <c r="N209" s="186"/>
-      <c r="O209" s="186"/>
+      <c r="J209" s="170"/>
+      <c r="K209" s="88"/>
+      <c r="L209" s="88"/>
+      <c r="M209" s="88"/>
+      <c r="N209" s="88"/>
+      <c r="O209" s="88"/>
       <c r="P209" s="89"/>
     </row>
     <row r="210" spans="10:16">
-      <c r="J210" s="185"/>
-      <c r="K210" s="186"/>
-      <c r="L210" s="186"/>
-      <c r="M210" s="186"/>
-      <c r="N210" s="186"/>
-      <c r="O210" s="186"/>
+      <c r="J210" s="170"/>
+      <c r="K210" s="88"/>
+      <c r="L210" s="88"/>
+      <c r="M210" s="88"/>
+      <c r="N210" s="88"/>
+      <c r="O210" s="88"/>
       <c r="P210" s="89"/>
     </row>
     <row r="211" spans="10:16">
-      <c r="J211" s="188"/>
+      <c r="J211" s="172"/>
       <c r="K211" s="90"/>
       <c r="L211" s="90"/>
       <c r="M211" s="90"/>
@@ -27023,313 +26978,313 @@
       <c r="J212" s="60"/>
     </row>
     <row r="213" spans="10:16">
-      <c r="J213" s="202" t="s">
-        <v>673</v>
-      </c>
-      <c r="K213" s="192"/>
-      <c r="L213" s="192"/>
-      <c r="M213" s="192"/>
-      <c r="N213" s="192"/>
-      <c r="O213" s="192"/>
-      <c r="P213" s="193"/>
+      <c r="J213" s="174" t="s">
+        <v>672</v>
+      </c>
+      <c r="K213" s="86"/>
+      <c r="L213" s="86"/>
+      <c r="M213" s="86"/>
+      <c r="N213" s="86"/>
+      <c r="O213" s="86"/>
+      <c r="P213" s="87"/>
     </row>
     <row r="214" spans="10:16">
-      <c r="J214" s="198"/>
-      <c r="K214" s="199"/>
-      <c r="L214" s="199"/>
-      <c r="M214" s="199"/>
-      <c r="N214" s="199"/>
-      <c r="O214" s="199"/>
-      <c r="P214" s="195"/>
+      <c r="J214" s="170"/>
+      <c r="K214" s="88"/>
+      <c r="L214" s="88"/>
+      <c r="M214" s="88"/>
+      <c r="N214" s="88"/>
+      <c r="O214" s="88"/>
+      <c r="P214" s="89"/>
     </row>
     <row r="215" spans="10:16">
-      <c r="J215" s="198"/>
-      <c r="K215" s="199"/>
-      <c r="L215" s="199"/>
-      <c r="M215" s="199"/>
-      <c r="N215" s="199"/>
-      <c r="O215" s="199"/>
-      <c r="P215" s="195"/>
+      <c r="J215" s="170"/>
+      <c r="K215" s="88"/>
+      <c r="L215" s="88"/>
+      <c r="M215" s="88"/>
+      <c r="N215" s="88"/>
+      <c r="O215" s="88"/>
+      <c r="P215" s="89"/>
     </row>
     <row r="216" spans="10:16">
-      <c r="J216" s="198"/>
-      <c r="K216" s="199"/>
-      <c r="L216" s="199"/>
-      <c r="M216" s="194"/>
-      <c r="N216" s="199"/>
-      <c r="O216" s="199"/>
-      <c r="P216" s="195"/>
+      <c r="J216" s="170"/>
+      <c r="K216" s="88"/>
+      <c r="L216" s="88"/>
+      <c r="M216" s="88"/>
+      <c r="N216" s="88"/>
+      <c r="O216" s="88"/>
+      <c r="P216" s="89"/>
     </row>
     <row r="217" spans="10:16">
-      <c r="J217" s="198"/>
-      <c r="K217" s="199"/>
-      <c r="L217" s="199"/>
-      <c r="N217" s="199"/>
-      <c r="O217" s="199"/>
-      <c r="P217" s="195"/>
+      <c r="J217" s="170"/>
+      <c r="K217" s="88"/>
+      <c r="L217" s="88"/>
+      <c r="N217" s="88"/>
+      <c r="O217" s="88"/>
+      <c r="P217" s="89"/>
     </row>
     <row r="218" spans="10:16">
-      <c r="J218" s="198"/>
-      <c r="K218" s="199"/>
-      <c r="L218" s="199"/>
-      <c r="M218" s="194" t="s">
+      <c r="J218" s="170"/>
+      <c r="K218" s="88"/>
+      <c r="L218" s="88"/>
+      <c r="M218" s="88" t="s">
         <v>665</v>
       </c>
-      <c r="N218" s="199"/>
-      <c r="O218" s="199"/>
-      <c r="P218" s="195"/>
+      <c r="N218" s="88"/>
+      <c r="O218" s="88"/>
+      <c r="P218" s="89"/>
     </row>
     <row r="219" spans="10:16">
-      <c r="J219" s="198"/>
-      <c r="K219" s="199"/>
-      <c r="L219" s="199"/>
-      <c r="M219" s="194" t="s">
+      <c r="J219" s="170"/>
+      <c r="K219" s="88"/>
+      <c r="L219" s="88"/>
+      <c r="M219" s="88" t="s">
         <v>667</v>
       </c>
-      <c r="N219" s="199"/>
-      <c r="O219" s="199"/>
-      <c r="P219" s="195"/>
+      <c r="N219" s="88"/>
+      <c r="O219" s="88"/>
+      <c r="P219" s="89"/>
     </row>
     <row r="220" spans="10:16">
-      <c r="J220" s="198"/>
-      <c r="K220" s="199"/>
-      <c r="L220" s="199"/>
-      <c r="M220" s="199"/>
-      <c r="N220" s="199"/>
-      <c r="O220" s="199"/>
-      <c r="P220" s="195"/>
+      <c r="J220" s="170"/>
+      <c r="K220" s="88"/>
+      <c r="L220" s="88"/>
+      <c r="M220" s="88"/>
+      <c r="N220" s="88"/>
+      <c r="O220" s="88"/>
+      <c r="P220" s="89"/>
     </row>
     <row r="221" spans="10:16">
-      <c r="J221" s="198"/>
-      <c r="K221" s="199"/>
-      <c r="L221" s="199"/>
-      <c r="M221" s="199" t="s">
+      <c r="J221" s="170"/>
+      <c r="K221" s="88"/>
+      <c r="L221" s="88"/>
+      <c r="M221" s="88" t="s">
         <v>666</v>
       </c>
-      <c r="N221" s="199"/>
-      <c r="O221" s="199"/>
-      <c r="P221" s="195"/>
+      <c r="N221" s="88"/>
+      <c r="O221" s="88"/>
+      <c r="P221" s="89"/>
     </row>
     <row r="222" spans="10:16">
-      <c r="J222" s="198"/>
-      <c r="K222" s="199"/>
-      <c r="L222" s="199"/>
-      <c r="M222" s="199" t="s">
+      <c r="J222" s="170"/>
+      <c r="K222" s="88"/>
+      <c r="L222" s="88"/>
+      <c r="M222" s="88" t="s">
         <v>668</v>
       </c>
-      <c r="N222" s="199"/>
-      <c r="O222" s="199"/>
-      <c r="P222" s="195"/>
+      <c r="N222" s="88"/>
+      <c r="O222" s="88"/>
+      <c r="P222" s="89"/>
     </row>
     <row r="223" spans="10:16">
-      <c r="J223" s="198"/>
-      <c r="K223" s="199"/>
-      <c r="L223" s="199"/>
-      <c r="M223" s="201"/>
-      <c r="N223" s="199"/>
-      <c r="O223" s="199"/>
-      <c r="P223" s="195"/>
+      <c r="J223" s="170"/>
+      <c r="K223" s="88"/>
+      <c r="L223" s="88"/>
+      <c r="M223" s="173"/>
+      <c r="N223" s="88"/>
+      <c r="O223" s="88"/>
+      <c r="P223" s="89"/>
     </row>
     <row r="224" spans="10:16">
-      <c r="J224" s="198"/>
-      <c r="K224" s="199"/>
-      <c r="L224" s="199"/>
-      <c r="M224" s="199"/>
-      <c r="N224" s="199"/>
-      <c r="O224" s="199"/>
-      <c r="P224" s="195"/>
+      <c r="J224" s="170"/>
+      <c r="K224" s="88"/>
+      <c r="L224" s="88"/>
+      <c r="M224" s="88"/>
+      <c r="N224" s="88"/>
+      <c r="O224" s="88"/>
+      <c r="P224" s="89"/>
     </row>
     <row r="225" spans="10:16">
-      <c r="J225" s="198"/>
-      <c r="K225" s="199"/>
-      <c r="L225" s="199"/>
-      <c r="M225" s="199"/>
-      <c r="N225" s="199"/>
-      <c r="O225" s="199"/>
-      <c r="P225" s="195"/>
+      <c r="J225" s="170"/>
+      <c r="K225" s="88"/>
+      <c r="L225" s="88"/>
+      <c r="M225" s="88"/>
+      <c r="N225" s="88"/>
+      <c r="O225" s="88"/>
+      <c r="P225" s="89"/>
     </row>
     <row r="226" spans="10:16">
-      <c r="J226" s="198"/>
-      <c r="K226" s="199"/>
-      <c r="L226" s="199"/>
-      <c r="M226" s="199"/>
-      <c r="N226" s="199"/>
-      <c r="O226" s="199"/>
-      <c r="P226" s="195"/>
+      <c r="J226" s="170"/>
+      <c r="K226" s="88"/>
+      <c r="L226" s="88"/>
+      <c r="M226" s="88"/>
+      <c r="N226" s="88"/>
+      <c r="O226" s="88"/>
+      <c r="P226" s="89"/>
     </row>
     <row r="227" spans="10:16">
-      <c r="J227" s="198"/>
-      <c r="K227" s="199"/>
-      <c r="L227" s="199"/>
-      <c r="M227" s="199"/>
-      <c r="N227" s="199"/>
-      <c r="O227" s="199"/>
-      <c r="P227" s="195"/>
+      <c r="J227" s="170"/>
+      <c r="K227" s="88"/>
+      <c r="L227" s="88"/>
+      <c r="M227" s="88"/>
+      <c r="N227" s="88"/>
+      <c r="O227" s="88"/>
+      <c r="P227" s="89"/>
     </row>
     <row r="228" spans="10:16">
-      <c r="J228" s="200"/>
-      <c r="K228" s="196"/>
-      <c r="L228" s="196"/>
-      <c r="M228" s="196"/>
-      <c r="N228" s="196"/>
-      <c r="O228" s="196"/>
-      <c r="P228" s="197"/>
+      <c r="J228" s="172"/>
+      <c r="K228" s="90"/>
+      <c r="L228" s="90"/>
+      <c r="M228" s="90"/>
+      <c r="N228" s="90"/>
+      <c r="O228" s="90"/>
+      <c r="P228" s="91"/>
     </row>
     <row r="229" spans="10:16">
       <c r="J229" s="60"/>
     </row>
     <row r="230" spans="10:16">
-      <c r="J230" s="202" t="s">
+      <c r="J230" s="174" t="s">
+        <v>677</v>
+      </c>
+      <c r="K230" s="86"/>
+      <c r="L230" s="86"/>
+      <c r="M230" s="86"/>
+      <c r="N230" s="86"/>
+      <c r="O230" s="86"/>
+      <c r="P230" s="87"/>
+    </row>
+    <row r="231" spans="10:16">
+      <c r="J231" s="170"/>
+      <c r="K231" s="88"/>
+      <c r="L231" s="88"/>
+      <c r="M231" s="88"/>
+      <c r="N231" s="88"/>
+      <c r="O231" s="88"/>
+      <c r="P231" s="89"/>
+    </row>
+    <row r="232" spans="10:16">
+      <c r="J232" s="170"/>
+      <c r="K232" s="88"/>
+      <c r="L232" s="88"/>
+      <c r="M232" s="88"/>
+      <c r="N232" s="88"/>
+      <c r="O232" s="88"/>
+      <c r="P232" s="89"/>
+    </row>
+    <row r="233" spans="10:16">
+      <c r="J233" s="170"/>
+      <c r="K233" s="88"/>
+      <c r="L233" s="88"/>
+      <c r="M233" s="88"/>
+      <c r="N233" s="88"/>
+      <c r="O233" s="88"/>
+      <c r="P233" s="89"/>
+    </row>
+    <row r="234" spans="10:16">
+      <c r="J234" s="170"/>
+      <c r="K234" s="88"/>
+      <c r="L234" s="88"/>
+      <c r="M234" s="88"/>
+      <c r="N234" s="88"/>
+      <c r="O234" s="88"/>
+      <c r="P234" s="89"/>
+    </row>
+    <row r="235" spans="10:16">
+      <c r="J235" s="170"/>
+      <c r="K235" s="88"/>
+      <c r="L235" s="88"/>
+      <c r="M235" s="88"/>
+      <c r="N235" s="88"/>
+      <c r="O235" s="88"/>
+      <c r="P235" s="89"/>
+    </row>
+    <row r="236" spans="10:16">
+      <c r="J236" s="170"/>
+      <c r="K236" s="88"/>
+      <c r="L236" s="88"/>
+      <c r="M236" s="88"/>
+      <c r="N236" s="88"/>
+      <c r="O236" s="88"/>
+      <c r="P236" s="89"/>
+    </row>
+    <row r="237" spans="10:16">
+      <c r="J237" s="170"/>
+      <c r="K237" s="88"/>
+      <c r="L237" s="88"/>
+      <c r="M237" s="88" t="s">
         <v>670</v>
       </c>
-      <c r="K230" s="192"/>
-      <c r="L230" s="192"/>
-      <c r="M230" s="192"/>
-      <c r="N230" s="192"/>
-      <c r="O230" s="192"/>
-      <c r="P230" s="193"/>
-    </row>
-    <row r="231" spans="10:16" s="190" customFormat="1">
-      <c r="J231" s="198"/>
-      <c r="K231" s="199"/>
-      <c r="L231" s="199"/>
-      <c r="M231" s="199"/>
-      <c r="N231" s="199"/>
-      <c r="O231" s="199"/>
-      <c r="P231" s="195"/>
-    </row>
-    <row r="232" spans="10:16" s="190" customFormat="1">
-      <c r="J232" s="198"/>
-      <c r="K232" s="199"/>
-      <c r="L232" s="199"/>
-      <c r="M232" s="199"/>
-      <c r="N232" s="199"/>
-      <c r="O232" s="199"/>
-      <c r="P232" s="195"/>
-    </row>
-    <row r="233" spans="10:16" s="190" customFormat="1">
-      <c r="J233" s="198"/>
-      <c r="K233" s="199"/>
-      <c r="L233" s="199"/>
-      <c r="M233" s="194"/>
-      <c r="N233" s="199"/>
-      <c r="O233" s="199"/>
-      <c r="P233" s="195"/>
-    </row>
-    <row r="234" spans="10:16" s="190" customFormat="1">
-      <c r="J234" s="198"/>
-      <c r="K234" s="199"/>
-      <c r="L234" s="199"/>
-      <c r="M234" s="194"/>
-      <c r="N234" s="199"/>
-      <c r="O234" s="199"/>
-      <c r="P234" s="195"/>
-    </row>
-    <row r="235" spans="10:16" s="190" customFormat="1">
-      <c r="J235" s="198"/>
-      <c r="K235" s="199"/>
-      <c r="L235" s="199"/>
-      <c r="M235" s="194"/>
-      <c r="N235" s="199"/>
-      <c r="O235" s="199"/>
-      <c r="P235" s="195"/>
-    </row>
-    <row r="236" spans="10:16" s="190" customFormat="1">
-      <c r="J236" s="198"/>
-      <c r="K236" s="199"/>
-      <c r="L236" s="199"/>
-      <c r="M236" s="194"/>
-      <c r="N236" s="199"/>
-      <c r="O236" s="199"/>
-      <c r="P236" s="195"/>
-    </row>
-    <row r="237" spans="10:16" s="190" customFormat="1">
-      <c r="J237" s="198"/>
-      <c r="K237" s="199"/>
-      <c r="L237" s="199"/>
-      <c r="M237" s="199" t="s">
+      <c r="N237" s="88"/>
+      <c r="O237" s="88"/>
+      <c r="P237" s="89"/>
+    </row>
+    <row r="238" spans="10:16">
+      <c r="J238" s="170"/>
+      <c r="K238" s="88"/>
+      <c r="L238" s="88"/>
+      <c r="M238" s="88" t="s">
         <v>671</v>
       </c>
-      <c r="N237" s="199"/>
-      <c r="O237" s="199"/>
-      <c r="P237" s="195"/>
-    </row>
-    <row r="238" spans="10:16" s="190" customFormat="1">
-      <c r="J238" s="198"/>
-      <c r="K238" s="199"/>
-      <c r="L238" s="199"/>
-      <c r="M238" s="199" t="s">
-        <v>672</v>
-      </c>
-      <c r="N238" s="199"/>
-      <c r="O238" s="199"/>
-      <c r="P238" s="195"/>
-    </row>
-    <row r="239" spans="10:16" s="190" customFormat="1">
-      <c r="J239" s="198"/>
-      <c r="K239" s="199"/>
-      <c r="L239" s="199"/>
-      <c r="M239" s="199"/>
-      <c r="N239" s="199"/>
-      <c r="O239" s="199"/>
-      <c r="P239" s="195"/>
-    </row>
-    <row r="240" spans="10:16" s="190" customFormat="1">
-      <c r="J240" s="198"/>
-      <c r="K240" s="199"/>
-      <c r="L240" s="199"/>
-      <c r="M240" s="201"/>
-      <c r="N240" s="199"/>
-      <c r="O240" s="199"/>
-      <c r="P240" s="195"/>
-    </row>
-    <row r="241" spans="10:16" s="190" customFormat="1">
-      <c r="J241" s="198"/>
-      <c r="K241" s="199"/>
-      <c r="L241" s="199"/>
-      <c r="M241" s="199"/>
-      <c r="N241" s="199"/>
-      <c r="O241" s="199"/>
-      <c r="P241" s="195"/>
-    </row>
-    <row r="242" spans="10:16" s="190" customFormat="1">
-      <c r="J242" s="198"/>
-      <c r="K242" s="199"/>
-      <c r="L242" s="199"/>
-      <c r="M242" s="199"/>
-      <c r="N242" s="199"/>
-      <c r="O242" s="199"/>
-      <c r="P242" s="195"/>
-    </row>
-    <row r="243" spans="10:16" s="190" customFormat="1">
-      <c r="J243" s="198"/>
-      <c r="K243" s="199"/>
-      <c r="L243" s="199"/>
-      <c r="M243" s="199"/>
-      <c r="N243" s="199"/>
-      <c r="O243" s="199"/>
-      <c r="P243" s="195"/>
-    </row>
-    <row r="244" spans="10:16" s="190" customFormat="1">
-      <c r="J244" s="198"/>
-      <c r="K244" s="199"/>
-      <c r="L244" s="199"/>
-      <c r="M244" s="199"/>
-      <c r="N244" s="199"/>
-      <c r="O244" s="199"/>
-      <c r="P244" s="195"/>
-    </row>
-    <row r="245" spans="10:16" s="190" customFormat="1">
-      <c r="J245" s="200"/>
-      <c r="K245" s="196"/>
-      <c r="L245" s="196"/>
-      <c r="M245" s="196"/>
-      <c r="N245" s="196"/>
-      <c r="O245" s="196"/>
-      <c r="P245" s="197"/>
-    </row>
-    <row r="246" spans="10:16" s="190" customFormat="1">
-      <c r="J246" s="191"/>
+      <c r="N238" s="88"/>
+      <c r="O238" s="88"/>
+      <c r="P238" s="89"/>
+    </row>
+    <row r="239" spans="10:16">
+      <c r="J239" s="170"/>
+      <c r="K239" s="88"/>
+      <c r="L239" s="88"/>
+      <c r="M239" s="88"/>
+      <c r="N239" s="88"/>
+      <c r="O239" s="88"/>
+      <c r="P239" s="89"/>
+    </row>
+    <row r="240" spans="10:16">
+      <c r="J240" s="170"/>
+      <c r="K240" s="88"/>
+      <c r="L240" s="88"/>
+      <c r="M240" s="173"/>
+      <c r="N240" s="88"/>
+      <c r="O240" s="88"/>
+      <c r="P240" s="89"/>
+    </row>
+    <row r="241" spans="10:16">
+      <c r="J241" s="170"/>
+      <c r="K241" s="88"/>
+      <c r="L241" s="88"/>
+      <c r="M241" s="88"/>
+      <c r="N241" s="88"/>
+      <c r="O241" s="88"/>
+      <c r="P241" s="89"/>
+    </row>
+    <row r="242" spans="10:16">
+      <c r="J242" s="170"/>
+      <c r="K242" s="88"/>
+      <c r="L242" s="88"/>
+      <c r="M242" s="88"/>
+      <c r="N242" s="88"/>
+      <c r="O242" s="88"/>
+      <c r="P242" s="89"/>
+    </row>
+    <row r="243" spans="10:16">
+      <c r="J243" s="170"/>
+      <c r="K243" s="88"/>
+      <c r="L243" s="88"/>
+      <c r="M243" s="88"/>
+      <c r="N243" s="88"/>
+      <c r="O243" s="88"/>
+      <c r="P243" s="89"/>
+    </row>
+    <row r="244" spans="10:16">
+      <c r="J244" s="170"/>
+      <c r="K244" s="88"/>
+      <c r="L244" s="88"/>
+      <c r="M244" s="88"/>
+      <c r="N244" s="88"/>
+      <c r="O244" s="88"/>
+      <c r="P244" s="89"/>
+    </row>
+    <row r="245" spans="10:16">
+      <c r="J245" s="172"/>
+      <c r="K245" s="90"/>
+      <c r="L245" s="90"/>
+      <c r="M245" s="90"/>
+      <c r="N245" s="90"/>
+      <c r="O245" s="90"/>
+      <c r="P245" s="91"/>
+    </row>
+    <row r="246" spans="10:16">
+      <c r="J246" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -27360,7 +27315,7 @@
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
@@ -27433,12 +27388,12 @@
       <c r="N7" s="77"/>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="180" t="s">
+      <c r="B9" s="187" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="10" spans="2:14">
-      <c r="B10" s="180"/>
+      <c r="B10" s="187"/>
     </row>
     <row r="12" spans="2:14">
       <c r="D12" s="83"/>
@@ -27523,12 +27478,12 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="14.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.58203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -30362,22 +30317,22 @@
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="14.5" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.375" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="31" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="181" t="s">
+      <c r="A1" s="30" t="s">
         <v>419</v>
       </c>
-      <c r="B1" s="181" t="s">
+      <c r="B1" s="30" t="s">
         <v>420</v>
       </c>
-      <c r="C1" s="181" t="s">
+      <c r="C1" s="30" t="s">
         <v>421</v>
       </c>
       <c r="F1" s="67" t="s">
@@ -30445,13 +30400,13 @@
       </c>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="182" t="s">
+      <c r="A2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="182" t="s">
+      <c r="B2" s="33" t="s">
         <v>399</v>
       </c>
-      <c r="C2" s="182" t="s">
+      <c r="C2" s="33" t="s">
         <v>417</v>
       </c>
       <c r="F2" s="33" t="s">
@@ -30519,13 +30474,13 @@
       </c>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="182" t="s">
+      <c r="B3" s="33" t="s">
         <v>402</v>
       </c>
-      <c r="C3" s="182" t="s">
+      <c r="C3" s="33" t="s">
         <v>411</v>
       </c>
       <c r="F3" s="33" t="s">
@@ -30593,13 +30548,13 @@
       </c>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="182" t="s">
+      <c r="A4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="182" t="s">
+      <c r="B4" s="33" t="s">
         <v>405</v>
       </c>
-      <c r="C4" s="182" t="s">
+      <c r="C4" s="33" t="s">
         <v>409</v>
       </c>
       <c r="F4" s="33" t="s">
@@ -30667,13 +30622,13 @@
       </c>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="182" t="s">
+      <c r="A5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="182" t="s">
+      <c r="B5" s="33" t="s">
         <v>407</v>
       </c>
-      <c r="C5" s="182" t="s">
+      <c r="C5" s="33" t="s">
         <v>400</v>
       </c>
       <c r="F5" s="33" t="s">
@@ -30741,13 +30696,13 @@
       </c>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="182" t="s">
+      <c r="A6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="182" t="s">
+      <c r="B6" s="33" t="s">
         <v>409</v>
       </c>
-      <c r="C6" s="182" t="s">
+      <c r="C6" s="33" t="s">
         <v>411</v>
       </c>
       <c r="F6" s="33" t="s">
@@ -30815,13 +30770,13 @@
       </c>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="182" t="s">
+      <c r="A7" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="182" t="s">
+      <c r="B7" s="33" t="s">
         <v>409</v>
       </c>
-      <c r="C7" s="182" t="s">
+      <c r="C7" s="33" t="s">
         <v>399</v>
       </c>
       <c r="F7" s="33" t="s">
@@ -30889,13 +30844,13 @@
       </c>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="182" t="s">
+      <c r="A8" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="182" t="s">
+      <c r="B8" s="33" t="s">
         <v>409</v>
       </c>
-      <c r="C8" s="182" t="s">
+      <c r="C8" s="33" t="s">
         <v>401</v>
       </c>
       <c r="F8" s="33" t="s">
@@ -30963,13 +30918,13 @@
       </c>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="182" t="s">
+      <c r="A9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="182" t="s">
+      <c r="B9" s="33" t="s">
         <v>409</v>
       </c>
-      <c r="C9" s="182" t="s">
+      <c r="C9" s="33" t="s">
         <v>416</v>
       </c>
       <c r="F9" s="33" t="s">
@@ -31037,13 +30992,13 @@
       </c>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="182" t="s">
+      <c r="A10" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="182" t="s">
+      <c r="B10" s="33" t="s">
         <v>410</v>
       </c>
-      <c r="C10" s="182" t="s">
+      <c r="C10" s="33" t="s">
         <v>418</v>
       </c>
       <c r="F10" s="33" t="s">
@@ -31111,13 +31066,13 @@
       </c>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="182" t="s">
+      <c r="A11" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="182" t="s">
+      <c r="B11" s="33" t="s">
         <v>410</v>
       </c>
-      <c r="C11" s="182" t="s">
+      <c r="C11" s="33" t="s">
         <v>400</v>
       </c>
       <c r="F11" s="33" t="s">
@@ -31185,13 +31140,13 @@
       </c>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="182" t="s">
+      <c r="A12" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="182" t="s">
+      <c r="B12" s="33" t="s">
         <v>410</v>
       </c>
-      <c r="C12" s="182" t="s">
+      <c r="C12" s="33" t="s">
         <v>405</v>
       </c>
       <c r="F12" s="33" t="s">
@@ -31259,13 +31214,13 @@
       </c>
     </row>
     <row r="13" spans="1:26">
-      <c r="A13" s="182" t="s">
+      <c r="A13" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="182" t="s">
+      <c r="B13" s="33" t="s">
         <v>403</v>
       </c>
-      <c r="C13" s="182" t="s">
+      <c r="C13" s="33" t="s">
         <v>406</v>
       </c>
       <c r="F13" s="33" t="s">
@@ -31333,13 +31288,13 @@
       </c>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="182" t="s">
+      <c r="A14" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="182" t="s">
+      <c r="B14" s="33" t="s">
         <v>403</v>
       </c>
-      <c r="C14" s="182" t="s">
+      <c r="C14" s="33" t="s">
         <v>414</v>
       </c>
       <c r="F14" s="33" t="s">
@@ -31407,13 +31362,13 @@
       </c>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="182" t="s">
+      <c r="A15" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="182" t="s">
+      <c r="B15" s="33" t="s">
         <v>411</v>
       </c>
-      <c r="C15" s="182" t="s">
+      <c r="C15" s="33" t="s">
         <v>399</v>
       </c>
       <c r="F15" s="33" t="s">
@@ -31481,13 +31436,13 @@
       </c>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" s="182" t="s">
+      <c r="A16" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="182" t="s">
+      <c r="B16" s="33" t="s">
         <v>411</v>
       </c>
-      <c r="C16" s="182" t="s">
+      <c r="C16" s="33" t="s">
         <v>417</v>
       </c>
       <c r="F16" s="33" t="s">
@@ -31555,13 +31510,13 @@
       </c>
     </row>
     <row r="17" spans="1:26">
-      <c r="A17" s="182" t="s">
+      <c r="A17" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="182" t="s">
+      <c r="B17" s="33" t="s">
         <v>411</v>
       </c>
-      <c r="C17" s="182" t="s">
+      <c r="C17" s="33" t="s">
         <v>414</v>
       </c>
       <c r="F17" s="33" t="s">
@@ -31629,13 +31584,13 @@
       </c>
     </row>
     <row r="18" spans="1:26">
-      <c r="A18" s="182" t="s">
+      <c r="A18" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="182" t="s">
+      <c r="B18" s="33" t="s">
         <v>411</v>
       </c>
-      <c r="C18" s="182" t="s">
+      <c r="C18" s="33" t="s">
         <v>412</v>
       </c>
       <c r="F18" s="33" t="s">
@@ -31703,13 +31658,13 @@
       </c>
     </row>
     <row r="19" spans="1:26">
-      <c r="A19" s="182" t="s">
+      <c r="A19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="182" t="s">
+      <c r="B19" s="33" t="s">
         <v>412</v>
       </c>
-      <c r="C19" s="182" t="s">
+      <c r="C19" s="33" t="s">
         <v>402</v>
       </c>
       <c r="F19" s="33" t="s">
@@ -31777,13 +31732,13 @@
       </c>
     </row>
     <row r="20" spans="1:26">
-      <c r="A20" s="182" t="s">
+      <c r="A20" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="182" t="s">
+      <c r="B20" s="33" t="s">
         <v>412</v>
       </c>
-      <c r="C20" s="182" t="s">
+      <c r="C20" s="33" t="s">
         <v>413</v>
       </c>
       <c r="F20" s="33" t="s">
@@ -31851,13 +31806,13 @@
       </c>
     </row>
     <row r="21" spans="1:26">
-      <c r="A21" s="182" t="s">
+      <c r="A21" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="182" t="s">
+      <c r="B21" s="33" t="s">
         <v>412</v>
       </c>
-      <c r="C21" s="182" t="s">
+      <c r="C21" s="33" t="s">
         <v>403</v>
       </c>
       <c r="F21" s="33" t="s">
@@ -31925,244 +31880,244 @@
       </c>
     </row>
     <row r="22" spans="1:26">
-      <c r="A22" s="182" t="s">
+      <c r="A22" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="182" t="s">
+      <c r="B22" s="33" t="s">
         <v>404</v>
       </c>
-      <c r="C22" s="182" t="s">
+      <c r="C22" s="33" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="23" spans="1:26">
-      <c r="A23" s="182" t="s">
+      <c r="A23" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="182" t="s">
+      <c r="B23" s="33" t="s">
         <v>404</v>
       </c>
-      <c r="C23" s="182" t="s">
+      <c r="C23" s="33" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="24" spans="1:26">
-      <c r="A24" s="182" t="s">
+      <c r="A24" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="182" t="s">
+      <c r="B24" s="33" t="s">
         <v>414</v>
       </c>
-      <c r="C24" s="182" t="s">
+      <c r="C24" s="33" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="25" spans="1:26">
-      <c r="A25" s="182" t="s">
+      <c r="A25" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="182" t="s">
+      <c r="B25" s="33" t="s">
         <v>414</v>
       </c>
-      <c r="C25" s="182" t="s">
+      <c r="C25" s="33" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="26" spans="1:26">
-      <c r="A26" s="182" t="s">
+      <c r="A26" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="182" t="s">
+      <c r="B26" s="33" t="s">
         <v>414</v>
       </c>
-      <c r="C26" s="182" t="s">
+      <c r="C26" s="33" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="27" spans="1:26">
-      <c r="A27" s="182" t="s">
+      <c r="A27" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="182" t="s">
+      <c r="B27" s="33" t="s">
         <v>406</v>
       </c>
-      <c r="C27" s="182" t="s">
+      <c r="C27" s="33" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="28" spans="1:26">
-      <c r="A28" s="182" t="s">
+      <c r="A28" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="182" t="s">
+      <c r="B28" s="33" t="s">
         <v>406</v>
       </c>
-      <c r="C28" s="182" t="s">
+      <c r="C28" s="33" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="29" spans="1:26">
-      <c r="A29" s="182" t="s">
+      <c r="A29" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="182" t="s">
+      <c r="B29" s="33" t="s">
         <v>406</v>
       </c>
-      <c r="C29" s="182" t="s">
+      <c r="C29" s="33" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="30" spans="1:26">
-      <c r="A30" s="182" t="s">
+      <c r="A30" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="182" t="s">
+      <c r="B30" s="33" t="s">
         <v>406</v>
       </c>
-      <c r="C30" s="182" t="s">
+      <c r="C30" s="33" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="31" spans="1:26">
-      <c r="A31" s="182" t="s">
+      <c r="A31" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="182" t="s">
+      <c r="B31" s="33" t="s">
         <v>413</v>
       </c>
-      <c r="C31" s="182" t="s">
+      <c r="C31" s="33" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="32" spans="1:26">
-      <c r="A32" s="182" t="s">
+      <c r="A32" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="182" t="s">
+      <c r="B32" s="33" t="s">
         <v>413</v>
       </c>
-      <c r="C32" s="182" t="s">
+      <c r="C32" s="33" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="182" t="s">
+      <c r="A33" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="182" t="s">
+      <c r="B33" s="33" t="s">
         <v>416</v>
       </c>
-      <c r="C33" s="182" t="s">
+      <c r="C33" s="33" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="182" t="s">
+      <c r="A34" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="182" t="s">
+      <c r="B34" s="33" t="s">
         <v>417</v>
       </c>
-      <c r="C34" s="182" t="s">
+      <c r="C34" s="33" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="182" t="s">
+      <c r="A35" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="182" t="s">
+      <c r="B35" s="33" t="s">
         <v>417</v>
       </c>
-      <c r="C35" s="182" t="s">
+      <c r="C35" s="33" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="182" t="s">
+      <c r="A36" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="182" t="s">
+      <c r="B36" s="33" t="s">
         <v>417</v>
       </c>
-      <c r="C36" s="182" t="s">
+      <c r="C36" s="33" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="182" t="s">
+      <c r="A37" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="182" t="s">
+      <c r="B37" s="33" t="s">
         <v>417</v>
       </c>
-      <c r="C37" s="182" t="s">
+      <c r="C37" s="33" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="182" t="s">
+      <c r="A38" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="182" t="s">
+      <c r="B38" s="33" t="s">
         <v>400</v>
       </c>
-      <c r="C38" s="182" t="s">
+      <c r="C38" s="33" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="182" t="s">
+      <c r="A39" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="182" t="s">
+      <c r="B39" s="33" t="s">
         <v>415</v>
       </c>
-      <c r="C39" s="182" t="s">
+      <c r="C39" s="33" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="182" t="s">
+      <c r="A40" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="182" t="s">
+      <c r="B40" s="33" t="s">
         <v>401</v>
       </c>
-      <c r="C40" s="182" t="s">
+      <c r="C40" s="33" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="182" t="s">
+      <c r="A41" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="182" t="s">
+      <c r="B41" s="33" t="s">
         <v>418</v>
       </c>
-      <c r="C41" s="182" t="s">
+      <c r="C41" s="33" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="182" t="s">
+      <c r="A42" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="182" t="s">
+      <c r="B42" s="33" t="s">
         <v>418</v>
       </c>
-      <c r="C42" s="182" t="s">
+      <c r="C42" s="33" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="182" t="s">
+      <c r="A43" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="182" t="s">
+      <c r="B43" s="33" t="s">
         <v>408</v>
       </c>
-      <c r="C43" s="182" t="s">
+      <c r="C43" s="33" t="s">
         <v>407</v>
       </c>
     </row>
@@ -40401,7 +40356,7 @@
       <selection activeCell="AO2" sqref="AO2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
     <row r="1" spans="1:76">
       <c r="A1" s="34" t="s">
@@ -45250,7 +45205,7 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="34" t="s">
